--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -60,10 +60,10 @@
     <t xml:space="preserve">describe</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarpras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarpras</t>
+    <t xml:space="preserve">Infrastructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure</t>
   </si>
   <si>
     <t xml:space="preserve">account_balance_wallet</t>
@@ -102,22 +102,19 @@
     <t xml:space="preserve">Beranda</t>
   </si>
   <si>
-    <t xml:space="preserve">Sapras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarpras-dashboard</t>
+    <t xml:space="preserve">infrastructure-dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarpras Unit</t>
+    <t xml:space="preserve">Infrastructure Unit</t>
   </si>
   <si>
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">sarpras-unit</t>
+    <t xml:space="preserve">infrastructure-unit</t>
   </si>
   <si>
     <t xml:space="preserve">savings</t>
@@ -126,13 +123,13 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarpras Assets</t>
+    <t xml:space="preserve">Infrastructure Assets</t>
   </si>
   <si>
     <t xml:space="preserve">Assets</t>
   </si>
   <si>
-    <t xml:space="preserve">sarpras-assets</t>
+    <t xml:space="preserve">infrastructure-assets</t>
   </si>
   <si>
     <t xml:space="preserve">tune</t>
@@ -271,48 +268,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,91 +507,91 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B37:C37 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="b">
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="b">
+      <c r="J2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -612,182 +613,182 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="B37:C37 E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="6" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="7" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="8" t="b">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="b">
+      <c r="I2" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="b">
+      <c r="K2" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="8" t="b">
+      <c r="H3" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I3" s="8" t="b">
+      <c r="I3" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="b">
+      <c r="K3" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="8" t="b">
+      <c r="H4" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="b">
+      <c r="I4" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="b">
+      <c r="K4" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -807,67 +808,67 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="B37:C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -889,36 +890,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="1" sqref="B37:C37 B38"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -940,73 +941,73 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="B37:C37 C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1027,85 +1028,85 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="B37:C37 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>46</v>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -123,19 +123,22 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-assets</t>
+    <t xml:space="preserve">Infrastructure Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-asset</t>
   </si>
   <si>
     <t xml:space="preserve">tune</t>
   </si>
   <si>
-    <t xml:space="preserve">assets</t>
+    <t xml:space="preserve">unit/:unit/asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-unit</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -154,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">superadmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approval</t>
   </si>
   <si>
     <t xml:space="preserve">superadmin, administrator</t>
@@ -169,9 +178,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -268,7 +278,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,6 +312,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -507,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,7 +530,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.83"/>
@@ -613,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -687,108 +702,105 @@
         <v>26</v>
       </c>
       <c r="H2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I2" s="9" t="b">
-        <f aca="false">FALSE()</f>
+    </row>
+    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="9" t="b">
+      <c r="K3" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="9" t="b">
+    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="9" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -809,7 +821,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,10 +836,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -837,8 +849,8 @@
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>39</v>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -849,7 +861,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -860,15 +872,15 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="11"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -887,15 +899,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.33"/>
   </cols>
   <sheetData>
@@ -904,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -912,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -922,6 +934,26 @@
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -941,8 +973,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,10 +989,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -971,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -982,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -993,12 +1025,12 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -1028,7 +1060,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1044,13 +1076,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1061,10 +1093,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1075,10 +1107,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1089,15 +1121,15 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -123,22 +123,28 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
+    <t xml:space="preserve">Infrastructure Unit Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infrastructure Asset</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure-unit</t>
+    <t xml:space="preserve">infrastructure-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -521,17 +527,19 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.83"/>
@@ -628,19 +636,21 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="7" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
   </cols>
   <sheetData>
@@ -701,10 +711,12 @@
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9" t="b">
+      <c r="H2" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I2" s="9" t="b">
+      <c r="I2" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K2" s="10" t="b">
@@ -734,10 +746,12 @@
       <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="9" t="b">
+      <c r="H3" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="b">
+      <c r="I3" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K3" s="10" t="b">
@@ -767,14 +781,16 @@
       <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="9" t="b">
+      <c r="H4" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9" t="b">
+      <c r="I4" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K4" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -782,9 +798,39 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H6" s="11"/>
@@ -821,13 +867,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.67"/>
   </cols>
   <sheetData>
@@ -836,10 +882,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -850,7 +896,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -861,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -872,11 +918,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -899,10 +953,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -924,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -940,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,12 +1002,8 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -974,13 +1024,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.83"/>
   </cols>
   <sheetData>
@@ -989,10 +1039,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1003,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1014,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1025,12 +1075,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -1060,12 +1117,12 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
@@ -1076,13 +1133,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1093,10 +1150,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1107,10 +1164,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1121,15 +1178,25 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="12"/>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -136,15 +136,6 @@
   </si>
   <si>
     <t xml:space="preserve">unit/:unit/asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -636,8 +627,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,39 +789,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H6" s="11"/>
@@ -866,8 +827,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -882,10 +843,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -896,7 +857,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -907,7 +868,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -918,20 +879,10 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="12"/>
@@ -970,7 +921,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -978,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -994,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +975,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1039,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1053,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1064,7 +1015,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1075,19 +1026,12 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -1117,7 +1061,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1133,13 +1077,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1150,10 +1094,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1164,10 +1108,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1178,25 +1122,16 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -126,16 +126,28 @@
     <t xml:space="preserve">Infrastructure Unit Asset</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure Asset</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asset</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset</t>
+    <t xml:space="preserve">infrastructure-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -627,8 +639,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -789,9 +801,39 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H6" s="11"/>
@@ -827,8 +869,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -857,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -868,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -879,10 +921,20 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="12"/>
@@ -921,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -929,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -945,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +1027,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -990,10 +1042,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1004,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1015,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1026,12 +1078,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -1060,8 +1119,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1077,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1094,10 +1153,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1108,10 +1167,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1122,16 +1181,25 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="69">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -138,6 +138,30 @@
     <t xml:space="preserve">unit/:unit/asset</t>
   </si>
   <si>
+    <t xml:space="preserve">Infrastructure Unit Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure Unit Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infrastructure Asset</t>
   </si>
   <si>
@@ -150,6 +174,30 @@
     <t xml:space="preserve">asset</t>
   </si>
   <si>
+    <t xml:space="preserve">Infrastructure Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance</t>
+  </si>
+  <si>
     <t xml:space="preserve">page</t>
   </si>
   <si>
@@ -157,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve">view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view, show</t>
   </si>
   <si>
     <t xml:space="preserve">view, create, show, update, delete, restore, destroy</t>
@@ -287,7 +338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -329,10 +380,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,23 +684,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="7" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
   </cols>
   <sheetData>
@@ -830,26 +877,162 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K5" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -867,16 +1050,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.67"/>
   </cols>
   <sheetData>
@@ -885,10 +1068,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -898,8 +1081,8 @@
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>43</v>
+      <c r="C2" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -910,7 +1093,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -921,7 +1104,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -932,14 +1115,53 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -973,7 +1195,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -981,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -997,7 +1219,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1024,16 +1246,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.83"/>
   </cols>
   <sheetData>
@@ -1042,10 +1264,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1056,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1067,7 +1289,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1078,7 +1300,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1089,17 +1311,52 @@
         <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1117,16 +1374,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
   </cols>
@@ -1136,13 +1393,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1153,10 +1410,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1167,10 +1424,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1181,10 +1438,10 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1195,20 +1452,67 @@
         <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="73">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t xml:space="preserve">asset/:asset/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -684,10 +696,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1034,6 +1046,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1050,10 +1097,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1068,10 +1115,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1082,7 +1129,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1093,7 +1140,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1104,7 +1151,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1115,7 +1162,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1126,7 +1173,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1137,7 +1184,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1148,7 +1195,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1206,18 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1203,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1219,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1246,10 +1304,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1264,10 +1322,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1278,7 +1336,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1289,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1300,7 +1358,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1311,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1322,7 +1380,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1333,7 +1391,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1344,7 +1402,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,7 +1413,18 @@
         <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1374,10 +1443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1393,13 +1462,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1410,10 +1479,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1424,10 +1493,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1438,10 +1507,10 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1452,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1466,10 +1535,10 @@
         <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1480,10 +1549,10 @@
         <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1494,10 +1563,10 @@
         <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,10 +1577,24 @@
         <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="136">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -108,9 +108,6 @@
     <t xml:space="preserve">dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure Unit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
@@ -123,7 +120,49 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure Unit Asset</t>
+    <t xml:space="preserve">Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset</t>
@@ -132,15 +171,9 @@
     <t xml:space="preserve">infrastructure-unit-asset</t>
   </si>
   <si>
-    <t xml:space="preserve">tune</t>
-  </si>
-  <si>
     <t xml:space="preserve">unit/:unit/asset</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure Unit Asset Documents</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unit Asset Documents</t>
   </si>
   <si>
@@ -150,64 +183,220 @@
     <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure Unit Asset Maintenance</t>
+    <t xml:space="preserve">Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Maintenance</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit Asset Perawatan</t>
+  </si>
+  <si>
     <t xml:space="preserve">infrastructure-unit-asset-maintenance</t>
   </si>
   <si>
     <t xml:space="preserve">unit/:unit/asset/:asset/maintenance</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Asset Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document</t>
+    <t xml:space="preserve">Unit Asset Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -589,7 +778,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -696,23 +885,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="56.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="7" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="46.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
   </cols>
   <sheetData>
@@ -773,12 +962,10 @@
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="9" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K2" s="10" t="b">
@@ -794,27 +981,25 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="9" t="b">
         <v>0</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="K3" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -826,33 +1011,28 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
+      <c r="I4" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="K4" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -864,33 +1044,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
+      <c r="I5" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="K5" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -902,33 +1077,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
+      <c r="I6" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="K6" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -940,29 +1110,27 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K7" s="10" t="b">
@@ -975,33 +1143,31 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <f aca="false">FALSE()</f>
+        <v>48</v>
+      </c>
+      <c r="H8" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I8" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K8" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1013,29 +1179,27 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <f aca="false">FALSE()</f>
+        <v>51</v>
+      </c>
+      <c r="H9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1051,35 +1215,834 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <f aca="false">FALSE()</f>
+        <v>54</v>
+      </c>
+      <c r="H10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="b">
         <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K10" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1097,10 +2060,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1115,10 +2078,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1129,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1137,10 +2100,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1148,10 +2111,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1159,10 +2122,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1170,10 +2133,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1181,10 +2144,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1192,10 +2155,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,10 +2166,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,10 +2177,208 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1238,8 +2399,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1253,7 +2414,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1261,7 +2422,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1277,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1304,10 +2465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1322,10 +2483,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1336,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1344,10 +2505,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1355,10 +2516,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1366,10 +2527,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1377,10 +2538,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1388,10 +2549,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1399,10 +2560,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,10 +2571,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,10 +2582,208 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1443,10 +2802,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1462,13 +2821,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1479,10 +2838,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1490,13 +2849,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1504,13 +2863,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1518,13 +2877,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1532,13 +2891,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1546,13 +2905,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1560,13 +2919,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,13 +2933,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,13 +2947,265 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="140">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t xml:space="preserve">unit/:unit/asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Documents</t>
@@ -778,7 +790,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -887,7 +899,7 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -962,10 +974,12 @@
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9" t="b">
+      <c r="H2" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K2" s="10" t="b">
@@ -995,10 +1009,12 @@
       <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="b">
+      <c r="H3" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K3" s="10" t="b">
@@ -1028,10 +1044,12 @@
       <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="b">
+      <c r="H4" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K4" s="10" t="b">
@@ -1061,10 +1079,12 @@
       <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="b">
+      <c r="H5" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K5" s="10" t="b">
@@ -1094,10 +1114,12 @@
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="b">
+      <c r="H6" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K6" s="10" t="b">
@@ -1127,11 +1149,13 @@
       <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9" t="b">
-        <v>0</v>
+      <c r="H7" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K7" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1160,10 +1184,12 @@
       <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="b">
+      <c r="H8" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1182,10 +1208,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -1194,16 +1220,18 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9" t="b">
+        <v>52</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K9" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1215,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
@@ -1230,16 +1258,18 @@
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="b">
+        <v>55</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K10" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1251,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>56</v>
@@ -1268,10 +1298,12 @@
       <c r="G11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9" t="b">
+      <c r="H11" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1304,14 +1336,16 @@
       <c r="G12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="b">
+      <c r="H12" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K12" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1340,14 +1374,16 @@
       <c r="G13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9" t="b">
+      <c r="H13" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K13" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1376,14 +1412,16 @@
       <c r="G14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9" t="b">
+      <c r="H14" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K14" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1412,14 +1450,16 @@
       <c r="G15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9" t="b">
+      <c r="H15" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K15" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1448,14 +1488,16 @@
       <c r="G16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="b">
+      <c r="H16" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K16" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1470,10 +1512,10 @@
         <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>33</v>
@@ -1482,16 +1524,18 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="b">
+        <v>82</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K17" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1503,10 +1547,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>84</v>
@@ -1520,14 +1564,16 @@
       <c r="G18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="b">
+      <c r="H18" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K18" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1535,7 +1581,9 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
@@ -1554,14 +1602,16 @@
       <c r="G19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="b">
+      <c r="H19" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K19" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1569,7 +1619,9 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
@@ -1588,14 +1640,16 @@
       <c r="G20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9" t="b">
+      <c r="H20" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="K20" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1604,7 +1658,9 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
@@ -1621,16 +1677,18 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9" t="b">
+        <v>97</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K21" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1638,15 +1696,17 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -1655,16 +1715,18 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9" t="b">
+        <v>82</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K22" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1672,7 +1734,9 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>101</v>
       </c>
@@ -1691,14 +1755,16 @@
       <c r="G23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9" t="b">
+      <c r="H23" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K23" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1706,7 +1772,9 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>105</v>
       </c>
@@ -1725,14 +1793,16 @@
       <c r="G24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9" t="b">
+      <c r="H24" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="K24" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1740,7 +1810,9 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
@@ -1759,14 +1831,16 @@
       <c r="G25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="b">
+      <c r="H25" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="K25" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1774,7 +1848,9 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
@@ -1791,16 +1867,18 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="b">
+        <v>116</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K26" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1808,15 +1886,17 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -1825,12 +1905,14 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="9" t="b">
+        <v>66</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1842,7 +1924,9 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
@@ -1861,14 +1945,16 @@
       <c r="G28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="9" t="b">
+      <c r="H28" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K28" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1876,173 +1962,90 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-      <c r="K39" s="0"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2060,10 +2063,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2078,10 +2081,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2092,7 +2095,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2103,7 +2106,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2114,7 +2117,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2125,7 +2128,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2136,7 +2139,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2147,7 +2150,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2158,7 +2161,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,10 +2169,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,10 +2180,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,7 +2194,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,7 +2205,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,7 +2216,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,7 +2227,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2235,7 +2238,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +2249,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,10 +2257,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2271,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2282,7 @@
         <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,7 +2293,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,7 +2304,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,10 +2312,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,7 +2326,7 @@
         <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +2337,7 @@
         <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,7 +2348,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,7 +2359,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,10 +2367,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,7 +2381,18 @@
         <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2413,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2414,7 +2428,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2422,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2438,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2465,10 +2479,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2483,10 +2497,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2497,7 +2511,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2508,7 +2522,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2519,7 +2533,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2530,7 +2544,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2541,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2552,7 +2566,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2563,7 +2577,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,10 +2585,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,10 +2596,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,7 +2610,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,7 +2621,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,7 +2632,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,7 +2643,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,7 +2654,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,7 +2665,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,10 +2673,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2687,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,7 +2698,7 @@
         <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,7 +2709,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,7 +2720,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,10 +2728,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,7 +2742,7 @@
         <v>103</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,7 +2753,7 @@
         <v>107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,7 +2764,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,7 +2775,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,10 +2783,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,7 +2797,18 @@
         <v>122</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2802,10 +2827,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2821,13 +2846,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2838,10 +2863,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2852,10 +2877,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2866,10 +2891,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2880,10 +2905,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2894,10 +2919,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2908,10 +2933,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2922,10 +2947,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,13 +2958,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,13 +2972,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,10 +2989,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,10 +3003,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,10 +3017,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,10 +3031,10 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,10 +3045,10 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,10 +3059,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,13 +3070,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,10 +3087,10 @@
         <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,10 +3101,10 @@
         <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,10 +3115,10 @@
         <v>92</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,10 +3129,10 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,13 +3140,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,10 +3157,10 @@
         <v>103</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,10 +3171,10 @@
         <v>107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,10 +3185,10 @@
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,10 +3199,10 @@
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,13 +3210,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,10 +3227,24 @@
         <v>122</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="152">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -165,6 +165,15 @@
     <t xml:space="preserve">document</t>
   </si>
   <si>
+    <t xml:space="preserve">Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit Asset</t>
   </si>
   <si>
@@ -183,25 +192,133 @@
     <t xml:space="preserve">infrastructure-unit-document</t>
   </si>
   <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax</t>
+  </si>
+  <si>
     <t xml:space="preserve">unit/:unit/document</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document</t>
+    <t xml:space="preserve">Unit Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Maintenance</t>
@@ -216,6 +333,18 @@
     <t xml:space="preserve">asset/:asset/maintenance</t>
   </si>
   <si>
+    <t xml:space="preserve">Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit Asset Maintenance</t>
   </si>
   <si>
@@ -231,127 +360,22 @@
     <t xml:space="preserve">Unit Asset Document Maintenance</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Document Pajak</t>
-  </si>
-  <si>
     <t xml:space="preserve">infrastructure-unit-asset-document-maintenance</t>
   </si>
   <si>
     <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
+    <t xml:space="preserve">Unit Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance Record</t>
@@ -409,6 +433,18 @@
   </si>
   <si>
     <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -456,7 +492,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +536,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -551,7 +593,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,7 +638,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,7 +943,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
@@ -906,12 +952,12 @@
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="56.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="78.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="7" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="46.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
@@ -1193,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K8" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1208,10 +1254,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -1220,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1243,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -1269,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K10" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1307,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K11" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1383,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K13" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1421,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K14" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1459,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K15" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1497,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K16" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1535,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K17" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1550,10 +1596,10 @@
         <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -1562,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1573,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K18" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1585,13 +1631,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
@@ -1600,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1611,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="K19" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1623,13 +1669,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -1638,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="H20" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1649,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K20" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1688,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K21" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1715,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H22" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1726,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K22" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1738,13 +1784,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
@@ -1753,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1764,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K23" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1776,13 +1822,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -1791,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1802,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="K24" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1814,10 +1860,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>111</v>
@@ -1840,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="K25" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1878,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K26" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1905,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="H27" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1916,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K27" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1928,13 +1974,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -1943,7 +1989,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H28" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1954,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="K28" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1966,13 +2012,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -1981,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H29" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1992,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K29" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -2000,52 +2046,313 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2063,16 +2370,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.67"/>
   </cols>
   <sheetData>
@@ -2081,10 +2388,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2094,8 +2401,8 @@
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>130</v>
+      <c r="C2" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2106,7 +2413,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2117,7 +2424,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2128,7 +2435,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2139,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2150,7 +2457,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2161,7 +2468,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,10 +2476,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,7 +2490,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2501,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2512,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2523,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,7 +2534,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,7 +2545,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,7 +2556,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2567,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,10 +2575,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,10 +2586,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,10 +2597,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2611,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,7 +2622,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,10 +2630,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,10 +2641,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,7 +2655,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,7 +2666,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,7 +2677,7 @@
         <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,10 +2685,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,10 +2696,43 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2768,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2436,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2452,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2819,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -2497,10 +2837,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2511,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2522,7 +2862,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2533,7 +2873,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2544,7 +2884,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2555,7 +2895,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2566,7 +2906,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2577,7 +2917,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,10 +2925,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,7 +2939,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2950,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2961,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,7 +2972,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,7 +2983,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,7 +2994,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,7 +3005,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +3016,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,10 +3024,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,10 +3035,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,10 +3046,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,7 +3060,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,7 +3071,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,10 +3079,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,10 +3090,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,7 +3104,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,7 +3115,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +3126,7 @@
         <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,10 +3134,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,10 +3145,43 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2827,16 +3200,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
   </cols>
@@ -2846,13 +3219,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2863,10 +3236,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2877,10 +3250,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2891,10 +3264,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2905,10 +3278,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2919,10 +3292,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2933,10 +3306,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2947,10 +3320,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,13 +3331,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,10 +3348,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,10 +3362,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,10 +3376,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,10 +3390,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,10 +3404,10 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,10 +3418,10 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,10 +3432,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,10 +3446,10 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,13 +3457,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,13 +3471,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,13 +3485,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,10 +3502,10 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,10 +3516,10 @@
         <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,13 +3527,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,13 +3541,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,10 +3558,10 @@
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,10 +3572,10 @@
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3586,10 @@
         <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,13 +3597,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,13 +3611,55 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="166">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">infrastructure-unit-document</t>
   </si>
   <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
+    <t xml:space="preserve">unit/:unit/document</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Documents</t>
@@ -249,7 +249,7 @@
     <t xml:space="preserve">infrastructure-unit-document-tax</t>
   </si>
   <si>
-    <t xml:space="preserve">unit/:unit/document</t>
+    <t xml:space="preserve">unit/:unit/document/:document/tax</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Document Tax</t>
@@ -375,16 +375,13 @@
     <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
   </si>
   <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintenance Record</t>
   </si>
   <si>
     <t xml:space="preserve">Perawatan Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure-maintenance-record</t>
+    <t xml:space="preserve">infrastructure-maintenance-record</t>
   </si>
   <si>
     <t xml:space="preserve">maintenance/:maintenance/record</t>
@@ -445,6 +442,51 @@
   </si>
   <si>
     <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-asset-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -836,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="B2:B36 C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -945,15 +987,15 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B2:B36 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.96"/>
@@ -1315,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K10" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1863,7 +1905,7 @@
         <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>111</v>
@@ -1913,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="H26" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1936,13 +1978,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -1951,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1974,13 +2016,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -1989,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2012,13 +2054,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -2050,13 +2092,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
@@ -2065,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2088,13 +2130,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -2103,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2126,13 +2168,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -2141,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2160,56 +2202,156 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
@@ -2370,10 +2512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2388,10 +2530,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2402,7 +2544,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2413,7 +2555,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2424,7 +2566,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2435,7 +2577,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2446,7 +2588,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2457,7 +2599,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2468,7 +2610,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,7 +2621,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,7 +2632,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,7 +2643,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2512,7 +2654,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,7 +2665,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,7 +2676,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,7 +2687,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2698,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,7 +2709,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,7 +2720,7 @@
         <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,7 +2731,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,7 +2742,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,7 +2753,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,7 +2764,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,7 +2775,7 @@
         <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +2786,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,7 +2797,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,7 +2808,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,10 +2816,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,10 +2827,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,10 +2838,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,10 +2849,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,10 +2860,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,10 +2871,54 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2753,8 +2939,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B2:B36 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2768,7 +2954,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2776,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2792,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2819,10 +3005,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2837,10 +3023,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2851,7 +3037,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2862,7 +3048,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2873,7 +3059,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2884,7 +3070,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2895,7 +3081,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2906,7 +3092,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2917,7 +3103,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,7 +3114,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,7 +3125,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +3136,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,7 +3147,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,7 +3158,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,7 +3169,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,7 +3180,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,7 +3191,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,7 +3202,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,7 +3213,7 @@
         <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,7 +3224,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +3235,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,7 +3246,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,7 +3257,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,7 +3268,7 @@
         <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,7 +3279,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,7 +3290,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,7 +3301,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,10 +3309,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,10 +3320,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,10 +3331,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,10 +3342,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,10 +3353,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,11 +3364,58 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3200,10 +3433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3219,13 +3452,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3236,10 +3469,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3250,10 +3483,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3264,10 +3497,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3278,10 +3511,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3292,10 +3525,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3306,10 +3539,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3320,10 +3553,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,10 +3567,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,10 +3581,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,10 +3595,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,10 +3609,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,10 +3623,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,10 +3637,10 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,10 +3651,10 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,10 +3665,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,10 +3679,10 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,10 +3693,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,10 +3707,10 @@
         <v>89</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,10 +3721,10 @@
         <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,10 +3735,10 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,10 +3749,10 @@
         <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,10 +3763,10 @@
         <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,10 +3777,10 @@
         <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,10 +3791,10 @@
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,10 +3805,10 @@
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,13 +3816,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,13 +3830,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,13 +3844,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,13 +3858,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,13 +3872,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,13 +3886,57 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="167">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance Record</t>
@@ -878,7 +881,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="B2:B36 C23"/>
     </sheetView>
   </sheetViews>
@@ -987,7 +990,7 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B2:B36 D2"/>
     </sheetView>
   </sheetViews>
@@ -1955,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="H26" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1978,13 +1981,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -1993,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H27" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2016,13 +2019,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -2031,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H28" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2054,13 +2057,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -2092,13 +2095,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
@@ -2107,7 +2110,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H30" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2130,13 +2133,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -2145,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H31" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2168,13 +2171,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -2183,7 +2186,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H32" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2206,13 +2209,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>33</v>
@@ -2221,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H33" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2244,13 +2247,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -2259,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K34" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -2282,13 +2285,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -2297,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H35" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2320,13 +2323,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -2335,7 +2338,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H36" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2346,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K36" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -2514,7 +2517,7 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
     </sheetView>
   </sheetViews>
@@ -2530,10 +2533,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2544,7 +2547,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2555,7 +2558,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2566,7 +2569,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2577,7 +2580,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2588,7 +2591,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2599,7 +2602,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2610,7 +2613,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2624,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,7 +2635,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,7 +2646,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,7 +2657,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,7 +2668,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +2679,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,7 +2690,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,7 +2701,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +2712,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,7 +2723,7 @@
         <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,7 +2734,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,7 +2745,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,7 +2756,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,7 +2767,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,7 +2778,7 @@
         <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2789,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,7 +2800,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,7 +2811,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,10 +2819,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,10 +2830,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,10 +2841,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,10 +2852,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,10 +2863,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,10 +2874,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,10 +2885,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,10 +2896,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,10 +2907,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,10 +2918,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2942,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B2:B36 D17"/>
     </sheetView>
   </sheetViews>
@@ -2954,7 +2957,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2962,7 +2965,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2978,7 +2981,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3010,7 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
     </sheetView>
   </sheetViews>
@@ -3023,10 +3026,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3037,7 +3040,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3048,7 +3051,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3059,7 +3062,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3070,7 +3073,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3081,7 +3084,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3092,7 +3095,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3103,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,7 +3117,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,7 +3128,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,7 +3139,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,7 +3150,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,7 +3161,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,7 +3172,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3183,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,7 +3194,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,7 +3205,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,7 +3216,7 @@
         <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3227,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,7 +3238,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,7 +3249,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,7 +3260,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3271,7 @@
         <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,7 +3282,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,7 +3293,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,7 +3304,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,10 +3312,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3323,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,10 +3334,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,10 +3345,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,10 +3356,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,10 +3367,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,10 +3378,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,10 +3389,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,10 +3400,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,10 +3411,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,7 +3438,7 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
     </sheetView>
   </sheetViews>
@@ -3452,13 +3455,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3469,10 +3472,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3483,10 +3486,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3497,10 +3500,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3511,10 +3514,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3525,10 +3528,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3539,10 +3542,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3553,10 +3556,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,10 +3570,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,10 +3584,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,10 +3598,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,10 +3612,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,10 +3626,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3637,10 +3640,10 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3651,10 +3654,10 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,10 +3668,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,10 +3682,10 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,10 +3696,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,10 +3710,10 @@
         <v>89</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,10 +3724,10 @@
         <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,10 +3738,10 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,10 +3752,10 @@
         <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,10 +3766,10 @@
         <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,10 +3780,10 @@
         <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,10 +3794,10 @@
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,10 +3808,10 @@
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,13 +3819,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,13 +3833,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3844,13 +3847,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,13 +3861,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,13 +3875,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,13 +3889,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,10 +3903,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,10 +3914,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,10 +3925,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,10 +3936,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="173">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -276,6 +276,15 @@
     <t xml:space="preserve">tax/:tax/record</t>
   </si>
   <si>
+    <t xml:space="preserve">Tax Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-tax-deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/deadline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asset Tax Record</t>
   </si>
   <si>
@@ -388,6 +397,15 @@
   </si>
   <si>
     <t xml:space="preserve">maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-maintenance-deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/deadline</t>
   </si>
   <si>
     <t xml:space="preserve">Document Maintenance Record</t>
@@ -537,7 +555,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +607,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -638,7 +663,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -687,7 +712,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,8 +910,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="B2:B36 C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,10 +1017,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B2:B36 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1640,11 +1669,11 @@
       <c r="B18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -1653,21 +1682,16 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="10" t="b">
-        <f aca="false">TRUE()</f>
+        <v>85</v>
+      </c>
+      <c r="H18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0"/>
+      <c r="K18" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1676,13 +1700,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
@@ -1691,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1702,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K19" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1714,13 +1738,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -1729,7 +1753,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="H20" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1740,13 +1764,12 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K20" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -1768,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H21" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1779,25 +1802,26 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K21" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -1806,7 +1830,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1817,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K22" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1829,13 +1853,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
@@ -1844,7 +1868,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1855,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K23" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1867,13 +1891,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -1882,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1893,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K24" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1905,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>110</v>
@@ -1931,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K25" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1946,10 +1970,10 @@
         <v>113</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>33</v>
@@ -1958,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1969,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K26" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -1981,13 +2005,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -1996,36 +2020,36 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -2034,36 +2058,36 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -2072,21 +2096,16 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" s="10" t="b">
-        <f aca="false">TRUE()</f>
+        <v>126</v>
+      </c>
+      <c r="H29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0"/>
+      <c r="K29" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2095,13 +2114,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
@@ -2110,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2121,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K30" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -2133,13 +2152,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -2148,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="H31" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2159,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K31" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -2170,14 +2189,14 @@
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -2186,7 +2205,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H32" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2197,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K32" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -2209,13 +2228,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>33</v>
@@ -2224,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2235,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="K33" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -2246,14 +2265,14 @@
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -2262,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2273,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="K34" s="10" t="b">
         <f aca="false">TRUE()</f>
@@ -2285,13 +2304,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -2300,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H35" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2323,13 +2342,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -2338,49 +2357,99 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
+      <c r="C37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
@@ -2396,108 +2465,44 @@
       <c r="K39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2517,8 +2522,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2533,10 +2538,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2546,8 +2551,8 @@
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>157</v>
+      <c r="C2" s="13" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2558,7 +2563,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2569,7 +2574,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2580,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2591,7 +2596,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2602,7 +2607,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2613,7 +2618,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,7 +2629,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,7 +2640,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,7 +2651,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,7 +2662,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,7 +2673,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,7 +2684,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,7 +2695,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,7 +2706,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2717,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,10 +2725,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,10 +2736,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,10 +2747,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,10 +2758,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,10 +2769,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,10 +2780,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,10 +2791,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,10 +2802,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,10 +2813,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,10 +2824,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,10 +2835,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,10 +2857,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,10 +2868,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,10 +2879,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,10 +2890,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,10 +2901,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,10 +2912,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,10 +2923,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2942,8 +2947,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B2:B36 D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2957,7 +2962,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2965,7 +2970,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2981,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3010,8 +3015,8 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3026,10 +3031,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3040,7 +3045,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3051,7 +3056,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3062,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3073,7 +3078,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3084,7 +3089,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3095,7 +3100,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3106,7 +3111,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,7 +3122,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,7 +3133,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,7 +3144,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +3155,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,7 +3166,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,7 +3177,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,7 +3188,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,7 +3210,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3218,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,10 +3229,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,10 +3240,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,10 +3251,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,10 +3262,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,10 +3273,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,10 +3284,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,10 +3295,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,10 +3306,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,10 +3317,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3328,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,10 +3339,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,10 +3350,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,10 +3361,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,10 +3372,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,10 +3383,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,10 +3394,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,10 +3405,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,10 +3416,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,8 +3443,8 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3455,13 +3460,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3472,10 +3477,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3486,10 +3491,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3500,10 +3505,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3514,10 +3519,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3528,10 +3533,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3542,10 +3547,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3556,10 +3561,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3570,10 +3575,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,10 +3589,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,10 +3603,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,10 +3617,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,10 +3631,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,10 +3645,10 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,10 +3659,10 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,10 +3673,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,10 +3687,10 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,13 +3698,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,13 +3712,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,13 +3726,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,13 +3740,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,13 +3754,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,13 +3768,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,13 +3782,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,13 +3796,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,13 +3810,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,13 +3824,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,13 +3838,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,13 +3852,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,13 +3866,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,13 +3880,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,13 +3894,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,10 +3908,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,10 +3919,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,10 +3930,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,10 +3941,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="176">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Tax Deadline</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure-tax-deadline</t>
+    <t xml:space="preserve">infrastructure-tax-deadline</t>
   </si>
   <si>
     <t xml:space="preserve">tax/:tax/deadline</t>
@@ -402,7 +402,7 @@
     <t xml:space="preserve">Maintenance Deadline</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure-maintenance-deadline</t>
+    <t xml:space="preserve">infrastructure-maintenance-deadline</t>
   </si>
   <si>
     <t xml:space="preserve">maintenance/:maintenance/deadline</t>
@@ -508,6 +508,15 @@
   </si>
   <si>
     <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -910,7 +919,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1019,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2451,18 +2460,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
+    <row r="39" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="J39" s="0"/>
-      <c r="K39" s="0"/>
+      <c r="K39" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="1"/>
@@ -2520,10 +2549,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2538,10 +2567,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2552,7 +2581,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2563,7 +2592,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2574,7 +2603,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2585,7 +2614,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2596,7 +2625,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2607,7 +2636,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2618,7 +2647,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,7 +2658,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,7 +2669,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,7 +2680,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,7 +2691,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2702,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,7 +2713,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,7 +2724,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,7 +2735,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +2746,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,10 +2754,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,10 +2765,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,10 +2787,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,10 +2798,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,10 +2809,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,10 +2820,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,10 +2831,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,10 +2842,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,10 +2853,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,10 +2864,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,10 +2875,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,10 +2886,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,10 +2897,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,10 +2908,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,10 +2919,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,10 +2930,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,10 +2941,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,10 +2952,43 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>165</v>
+      <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +3009,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2962,7 +3024,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2970,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2986,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3075,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3031,10 +3093,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3045,7 +3107,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3056,7 +3118,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3067,7 +3129,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3078,7 +3140,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3089,7 +3151,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3100,7 +3162,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3111,7 +3173,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,7 +3184,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,7 +3195,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,7 +3206,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,7 +3217,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,7 +3228,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3239,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,7 +3250,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,7 +3261,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,7 +3272,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,10 +3280,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,10 +3291,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,10 +3302,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,10 +3313,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,10 +3324,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,10 +3335,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3284,10 +3346,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,10 +3357,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,10 +3368,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,10 +3379,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,10 +3390,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,10 +3401,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,10 +3412,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,10 +3423,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,10 +3434,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,10 +3445,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,10 +3456,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,10 +3467,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,14 +3478,44 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3441,10 +3533,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3460,13 +3552,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3477,10 +3569,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3491,10 +3583,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3505,10 +3597,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3519,10 +3611,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3533,10 +3625,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3547,10 +3639,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3561,10 +3653,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,10 +3667,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,10 +3681,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,10 +3695,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,10 +3709,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,10 +3723,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,10 +3737,10 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,10 +3751,10 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,10 +3765,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,10 +3779,10 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,13 +3790,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,13 +3804,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,13 +3818,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,13 +3832,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,13 +3846,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,13 +3860,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,13 +3874,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,13 +3888,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,13 +3902,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,13 +3916,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,13 +3930,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,13 +3944,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,13 +3958,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,13 +3972,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,13 +3986,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,10 +4000,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,10 +4014,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,10 +4028,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,10 +4042,55 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>170</v>
+      <c r="C38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="231">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -132,6 +132,156 @@
     <t xml:space="preserve">asset</t>
   </si>
   <si>
+    <t xml:space="preserve">Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-asset-tax-record</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tax</t>
   </si>
   <si>
@@ -144,6 +294,27 @@
     <t xml:space="preserve">tax</t>
   </si>
   <si>
+    <t xml:space="preserve">Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/deadline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maintenance</t>
   </si>
   <si>
@@ -156,6 +327,27 @@
     <t xml:space="preserve">maintenance</t>
   </si>
   <si>
+    <t xml:space="preserve">Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/deadline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Document</t>
   </si>
   <si>
@@ -165,13 +357,76 @@
     <t xml:space="preserve">document</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document</t>
+    <t xml:space="preserve">Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset</t>
@@ -183,6 +438,156 @@
     <t xml:space="preserve">unit/:unit/asset</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit∕:unit/asset/:asset/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit∕:unit/asset/:asset/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit Document</t>
   </si>
   <si>
@@ -195,49 +600,40 @@
     <t xml:space="preserve">unit/:unit/document</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
+    <t xml:space="preserve">Unit Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document Tax</t>
@@ -252,262 +648,28 @@
     <t xml:space="preserve">unit/:unit/document/:document/tax</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure-asset-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record</t>
+    <t xml:space="preserve">Unit Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Tax Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Tax Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Deadline</t>
@@ -544,6 +706,9 @@
   </si>
   <si>
     <t xml:space="preserve">approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
   </si>
   <si>
     <t xml:space="preserve">superadmin, administrator</t>
@@ -564,7 +729,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,12 +773,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -721,12 +880,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1026,9 +1185,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1037,7 +1196,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="78.46"/>
@@ -1194,10 +1353,10 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -1206,33 +1365,36 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -1241,33 +1403,36 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -1276,27 +1441,30 @@
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -1322,9 +1490,9 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="10" t="b">
+        <v>43</v>
+      </c>
+      <c r="K8" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1360,9 +1528,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="10" t="b">
+        <v>36</v>
+      </c>
+      <c r="K9" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1398,9 +1566,9 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="10" t="b">
+        <v>50</v>
+      </c>
+      <c r="K10" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1413,10 +1581,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -1425,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1436,9 +1604,9 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="10" t="b">
+        <v>54</v>
+      </c>
+      <c r="K11" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1448,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>33</v>
@@ -1463,7 +1631,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1476,7 +1644,7 @@
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="10" t="b">
+      <c r="K12" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1486,13 +1654,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>33</v>
@@ -1501,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1512,9 +1680,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="10" t="b">
+        <v>62</v>
+      </c>
+      <c r="K13" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1524,13 +1692,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
@@ -1539,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1550,9 +1718,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="10" t="b">
+        <v>66</v>
+      </c>
+      <c r="K14" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1562,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -1577,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1588,9 +1756,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="10" t="b">
+        <v>32</v>
+      </c>
+      <c r="K15" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1600,13 +1768,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>33</v>
@@ -1615,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1626,9 +1794,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="10" t="b">
+        <v>74</v>
+      </c>
+      <c r="K16" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1638,13 +1806,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>33</v>
@@ -1653,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1664,25 +1832,25 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -1691,16 +1859,18 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0"/>
-      <c r="K18" s="9" t="b">
+        <v>88</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1709,13 +1879,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
@@ -1724,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H19" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1735,9 +1905,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="10" t="b">
+        <v>87</v>
+      </c>
+      <c r="K19" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1747,13 +1917,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -1762,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1772,26 +1942,23 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
@@ -1800,37 +1967,33 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H21" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -1839,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H22" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1850,25 +2013,25 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
@@ -1877,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H23" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1887,26 +2050,23 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -1915,20 +2075,17 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I24" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="10" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1938,13 +2095,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>33</v>
@@ -1953,7 +2110,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1964,9 +2121,9 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="10" t="b">
+        <v>108</v>
+      </c>
+      <c r="K25" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1976,13 +2133,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>33</v>
@@ -1991,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H26" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2002,9 +2159,9 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="10" t="b">
+        <v>112</v>
+      </c>
+      <c r="K26" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2014,13 +2171,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -2029,7 +2186,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H27" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2040,25 +2197,25 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -2067,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H28" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2078,25 +2235,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -2105,16 +2262,21 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0"/>
-      <c r="K29" s="9" t="b">
+        <v>129</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2123,13 +2285,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
@@ -2138,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H30" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2149,9 +2311,9 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="10" t="b">
+        <v>128</v>
+      </c>
+      <c r="K30" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2161,13 +2323,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -2176,7 +2338,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H31" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2187,9 +2349,9 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="10" t="b">
+        <v>28</v>
+      </c>
+      <c r="K31" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2199,13 +2361,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -2214,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H32" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2225,9 +2387,9 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K32" s="10" t="b">
+        <v>135</v>
+      </c>
+      <c r="K32" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2237,13 +2399,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>33</v>
@@ -2252,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H33" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2263,9 +2425,9 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K33" s="10" t="b">
+        <v>139</v>
+      </c>
+      <c r="K33" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2274,14 +2436,14 @@
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>142</v>
+      <c r="B34" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -2290,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2301,9 +2463,9 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K34" s="10" t="b">
+        <v>143</v>
+      </c>
+      <c r="K34" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2313,13 +2475,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -2328,7 +2490,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H35" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2339,9 +2501,9 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="10" t="b">
+        <v>135</v>
+      </c>
+      <c r="K35" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2351,13 +2513,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -2366,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H36" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2377,9 +2539,9 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K36" s="10" t="b">
+        <v>150</v>
+      </c>
+      <c r="K36" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2389,13 +2551,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>33</v>
@@ -2404,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H37" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2415,9 +2577,9 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" s="10" t="b">
+        <v>154</v>
+      </c>
+      <c r="K37" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2427,13 +2589,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>33</v>
@@ -2442,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H38" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2453,25 +2615,25 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="10" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>33</v>
@@ -2480,58 +2642,996 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="0"/>
-      <c r="K39" s="9" t="b">
+        <v>166</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0"/>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0"/>
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0"/>
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0"/>
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
+      <c r="K68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0"/>
+      <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0"/>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0"/>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
+      <c r="K73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0"/>
+      <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+      <c r="G74" s="0"/>
+      <c r="H74" s="0"/>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
+      <c r="K74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0"/>
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
+      <c r="J75" s="0"/>
+      <c r="K75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0"/>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0"/>
+      <c r="B78" s="0"/>
+      <c r="C78" s="0"/>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
+      <c r="G78" s="0"/>
+      <c r="H78" s="0"/>
+      <c r="I78" s="0"/>
+      <c r="J78" s="0"/>
+      <c r="K78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0"/>
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
+      <c r="K79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0"/>
+      <c r="B80" s="0"/>
+      <c r="C80" s="0"/>
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+      <c r="G80" s="0"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="0"/>
+      <c r="J80" s="0"/>
+      <c r="K80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0"/>
+      <c r="B81" s="0"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0"/>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+      <c r="G82" s="0"/>
+      <c r="H82" s="0"/>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0"/>
+      <c r="K82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0"/>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0"/>
+      <c r="B84" s="0"/>
+      <c r="C84" s="0"/>
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+      <c r="G84" s="0"/>
+      <c r="H84" s="0"/>
+      <c r="I84" s="0"/>
+      <c r="J84" s="0"/>
+      <c r="K84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0"/>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0"/>
+      <c r="B86" s="0"/>
+      <c r="C86" s="0"/>
+      <c r="D86" s="0"/>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+      <c r="G86" s="0"/>
+      <c r="H86" s="0"/>
+      <c r="I86" s="0"/>
+      <c r="J86" s="0"/>
+      <c r="K86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2549,10 +3649,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2567,10 +3667,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2580,8 +3680,8 @@
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>166</v>
+      <c r="C2" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2592,7 +3692,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2603,7 +3703,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2611,10 +3711,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2622,10 +3722,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2633,10 +3733,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2647,7 +3747,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,7 +3758,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,7 +3769,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,10 +3777,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,10 +3788,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,10 +3799,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,10 +3810,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,10 +3821,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,10 +3832,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,10 +3843,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,10 +3854,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,10 +3865,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,10 +3876,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,10 +3887,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,10 +3898,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,10 +3909,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,10 +3920,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,10 +3931,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,10 +3942,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,10 +3953,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,10 +3964,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,10 +3975,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,10 +3986,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,10 +3997,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,10 +4008,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,10 +4019,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,10 +4030,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,10 +4041,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,10 +4052,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,10 +4063,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,10 +4074,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,10 +4085,153 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3007,10 +4250,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3024,7 +4267,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3032,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3048,7 +4291,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,7 +4299,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3075,10 +4323,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3093,10 +4341,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3107,7 +4355,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3118,7 +4366,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3129,7 +4377,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3137,10 +4385,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3148,10 +4396,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3159,10 +4407,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3173,7 +4421,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3184,7 +4432,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,7 +4443,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,10 +4451,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,10 +4462,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,10 +4473,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,10 +4484,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,10 +4495,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,10 +4506,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,10 +4517,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,10 +4528,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,10 +4539,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +4550,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,10 +4561,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,10 +4572,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,10 +4583,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,10 +4594,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,10 +4605,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,10 +4616,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,10 +4627,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,10 +4638,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,10 +4649,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,10 +4660,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,10 +4671,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,10 +4682,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,10 +4693,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,10 +4704,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,10 +4715,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,10 +4726,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,10 +4737,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,10 +4748,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,10 +4759,153 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3533,10 +4924,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3552,13 +4943,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3569,10 +4960,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3583,10 +4974,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3597,10 +4988,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3608,13 +4999,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3622,13 +5013,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3636,13 +5027,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3653,10 +5044,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,10 +5058,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,10 +5072,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,13 +5083,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,13 +5097,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,13 +5111,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,13 +5125,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,13 +5139,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,13 +5153,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,13 +5167,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,13 +5181,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,13 +5195,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,13 +5209,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,13 +5223,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,13 +5237,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,13 +5251,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,13 +5265,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,13 +5279,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,13 +5293,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,13 +5307,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,13 +5321,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,13 +5335,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,13 +5349,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,13 +5363,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,13 +5377,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,13 +5391,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,13 +5405,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,13 +5419,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4042,13 +5433,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,13 +5447,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,13 +5461,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,13 +5475,195 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>175</v>
+      <c r="C41" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="233">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -306,13 +306,16 @@
     <t xml:space="preserve">tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax Deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/deadline</t>
+    <t xml:space="preserve">Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance</t>
@@ -339,13 +342,16 @@
     <t xml:space="preserve">maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenance Deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/deadline</t>
+    <t xml:space="preserve">Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Document</t>
@@ -453,25 +459,25 @@
     <t xml:space="preserve">Unit Asset Tax Record</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Tax Catatan</t>
+    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
   </si>
   <si>
     <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
   </si>
   <si>
-    <t xml:space="preserve">unit∕:unit/asset/:asset/tax/:tax/record</t>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Tax Record Used</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Tax Catatan Terpakai</t>
+    <t xml:space="preserve">Unit Asset Pajak Catatan Terpakai</t>
   </si>
   <si>
     <t xml:space="preserve">infrastructure-unit-asset-tax-record-used</t>
   </si>
   <si>
-    <t xml:space="preserve">unit∕:unit/asset/:asset/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Documents</t>
@@ -639,7 +645,7 @@
     <t xml:space="preserve">Unit Document Tax</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Documents Tax</t>
+    <t xml:space="preserve">Unit Documents Pajak</t>
   </si>
   <si>
     <t xml:space="preserve">infrastructure-unit-document-tax</t>
@@ -651,7 +657,7 @@
     <t xml:space="preserve">Unit Document Tax Record</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Documents Tax Catatan</t>
+    <t xml:space="preserve">Unit Documents Pajak Catatan</t>
   </si>
   <si>
     <t xml:space="preserve">infrastructure-unit-document-tax-record</t>
@@ -663,7 +669,7 @@
     <t xml:space="preserve">Unit Document Tax Record Used</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Documents Tax Catatan Terpakai</t>
+    <t xml:space="preserve">Unit Documents Pajak Catatan Terpakai</t>
   </si>
   <si>
     <t xml:space="preserve">infrastructure-unit-document-tax-record-used</t>
@@ -831,7 +837,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -882,10 +888,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1080,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1185,10 +1187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1199,9 +1201,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="78.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="84.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="7" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="46.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="48.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
   </cols>
   <sheetData>
@@ -1919,11 +1921,11 @@
       <c r="B20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>93</v>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -1932,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H20" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1941,6 +1943,9 @@
       <c r="I20" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="K20" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1952,13 +1957,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
@@ -1967,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H21" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1987,13 +1992,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -2002,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2013,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2025,13 +2030,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
@@ -2040,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2049,6 +2054,9 @@
       <c r="I23" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="K23" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2060,13 +2068,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -2075,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H24" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2095,13 +2103,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>33</v>
@@ -2110,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H25" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2121,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K25" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2133,13 +2141,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>33</v>
@@ -2148,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H26" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2159,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K26" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2171,13 +2179,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -2186,7 +2194,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H27" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2197,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K27" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2209,13 +2217,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -2224,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H28" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2235,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K28" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2247,13 +2255,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -2262,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H29" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2273,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K29" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2285,13 +2293,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
@@ -2300,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H30" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2311,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K30" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2323,13 +2331,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -2338,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H31" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2361,13 +2369,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -2376,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H32" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2387,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K32" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2399,13 +2407,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>33</v>
@@ -2414,7 +2422,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H33" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2425,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K33" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2437,13 +2445,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -2452,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2463,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K34" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2475,13 +2483,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -2490,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H35" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2501,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K35" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2513,13 +2521,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -2528,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H36" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2539,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K36" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2551,13 +2559,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>33</v>
@@ -2566,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H37" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2577,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K37" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2589,13 +2597,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>33</v>
@@ -2604,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H38" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2615,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K38" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2627,13 +2635,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>33</v>
@@ -2642,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H39" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2653,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K39" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2665,13 +2673,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>33</v>
@@ -2680,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H40" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2691,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K40" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2703,13 +2711,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>33</v>
@@ -2718,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H41" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2729,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K41" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2741,13 +2749,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>33</v>
@@ -2756,7 +2764,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H42" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2767,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K42" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2779,13 +2787,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>33</v>
@@ -2794,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H43" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2805,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K43" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2817,13 +2825,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>33</v>
@@ -2832,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H44" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2843,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K44" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2855,13 +2863,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>33</v>
@@ -2870,7 +2878,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H45" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2893,13 +2901,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>33</v>
@@ -2908,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H46" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2919,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K46" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2931,13 +2939,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>33</v>
@@ -2946,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H47" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2957,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K47" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2969,13 +2977,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>33</v>
@@ -2984,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H48" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2995,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K48" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3007,13 +3015,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>33</v>
@@ -3022,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H49" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3033,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K49" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3045,13 +3053,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>33</v>
@@ -3060,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H50" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3071,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K50" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3083,13 +3091,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>33</v>
@@ -3098,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H51" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3109,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K51" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3121,13 +3129,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>33</v>
@@ -3136,7 +3144,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H52" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3151,453 +3159,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
+    <row r="53" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C53" s="11"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
+      <c r="C54" s="11"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0"/>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-      <c r="K62" s="0"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0"/>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
-      <c r="H63" s="0"/>
-      <c r="I63" s="0"/>
-      <c r="J63" s="0"/>
-      <c r="K63" s="0"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
-      <c r="H64" s="0"/>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-      <c r="K64" s="0"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0"/>
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0"/>
-      <c r="H65" s="0"/>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0"/>
-      <c r="B66" s="0"/>
-      <c r="C66" s="0"/>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
-      <c r="H66" s="0"/>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-      <c r="K66" s="0"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0"/>
-      <c r="B68" s="0"/>
-      <c r="C68" s="0"/>
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
-      <c r="F68" s="0"/>
-      <c r="G68" s="0"/>
-      <c r="H68" s="0"/>
-      <c r="I68" s="0"/>
-      <c r="J68" s="0"/>
-      <c r="K68" s="0"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
-      <c r="G69" s="0"/>
-      <c r="H69" s="0"/>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0"/>
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
-      <c r="G70" s="0"/>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0"/>
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
-      <c r="G71" s="0"/>
-      <c r="H71" s="0"/>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
-      <c r="K71" s="0"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0"/>
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-      <c r="G72" s="0"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0"/>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-      <c r="K73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0"/>
-      <c r="B74" s="0"/>
-      <c r="C74" s="0"/>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
-      <c r="G74" s="0"/>
-      <c r="H74" s="0"/>
-      <c r="I74" s="0"/>
-      <c r="J74" s="0"/>
-      <c r="K74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
-      <c r="G75" s="0"/>
-      <c r="H75" s="0"/>
-      <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-      <c r="K75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0"/>
-      <c r="B78" s="0"/>
-      <c r="C78" s="0"/>
-      <c r="D78" s="0"/>
-      <c r="E78" s="0"/>
-      <c r="F78" s="0"/>
-      <c r="G78" s="0"/>
-      <c r="H78" s="0"/>
-      <c r="I78" s="0"/>
-      <c r="J78" s="0"/>
-      <c r="K78" s="0"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-      <c r="J79" s="0"/>
-      <c r="K79" s="0"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
-      <c r="C80" s="0"/>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-      <c r="F80" s="0"/>
-      <c r="G80" s="0"/>
-      <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
-      <c r="J80" s="0"/>
-      <c r="K80" s="0"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-      <c r="F81" s="0"/>
-      <c r="G81" s="0"/>
-      <c r="H81" s="0"/>
-      <c r="I81" s="0"/>
-      <c r="J81" s="0"/>
-      <c r="K81" s="0"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0"/>
-      <c r="B82" s="0"/>
-      <c r="C82" s="0"/>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
-      <c r="F82" s="0"/>
-      <c r="G82" s="0"/>
-      <c r="H82" s="0"/>
-      <c r="I82" s="0"/>
-      <c r="J82" s="0"/>
-      <c r="K82" s="0"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-      <c r="K83" s="0"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0"/>
-      <c r="B84" s="0"/>
-      <c r="C84" s="0"/>
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
-      <c r="F84" s="0"/>
-      <c r="G84" s="0"/>
-      <c r="H84" s="0"/>
-      <c r="I84" s="0"/>
-      <c r="J84" s="0"/>
-      <c r="K84" s="0"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0"/>
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-      <c r="G85" s="0"/>
-      <c r="H85" s="0"/>
-      <c r="I85" s="0"/>
-      <c r="J85" s="0"/>
-      <c r="K85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0"/>
-      <c r="B86" s="0"/>
-      <c r="C86" s="0"/>
-      <c r="D86" s="0"/>
-      <c r="E86" s="0"/>
-      <c r="F86" s="0"/>
-      <c r="G86" s="0"/>
-      <c r="H86" s="0"/>
-      <c r="I86" s="0"/>
-      <c r="J86" s="0"/>
-      <c r="K86" s="0"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
@@ -3632,6 +3338,14 @@
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3651,8 +3365,8 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3667,10 +3381,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3681,7 +3395,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3692,7 +3406,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3703,7 +3417,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3714,7 +3428,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3725,7 +3439,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3736,7 +3450,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3747,7 +3461,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,7 +3472,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,7 +3483,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,7 +3494,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,7 +3505,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,7 +3516,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,7 +3527,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,7 +3538,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,7 +3549,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,7 +3560,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,7 +3571,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,7 +3582,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3876,10 +3590,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,10 +3601,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,10 +3612,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,10 +3623,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,10 +3634,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,10 +3645,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,10 +3656,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,10 +3667,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,10 +3678,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,10 +3689,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,10 +3700,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,10 +3711,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,10 +3722,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,10 +3733,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,10 +3744,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,10 +3755,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,10 +3766,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,10 +3777,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,10 +3788,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,10 +3799,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,10 +3810,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,10 +3821,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,10 +3832,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,10 +3843,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,10 +3854,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,10 +3865,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,10 +3876,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,10 +3887,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,10 +3898,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,10 +3909,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,10 +3920,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,10 +3931,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4228,10 +3942,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4252,7 +3966,7 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -4267,7 +3981,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4275,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4291,7 +4005,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,12 +4013,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="13" t="s">
-        <v>227</v>
+      <c r="D17" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4325,15 +4039,15 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="54.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4341,10 +4055,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4355,7 +4069,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4366,7 +4080,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4377,7 +4091,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4388,7 +4102,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4399,7 +4113,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4410,7 +4124,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4421,7 +4135,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,7 +4146,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,7 +4157,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4168,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,7 +4179,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,7 +4190,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,7 +4201,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,7 +4212,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4223,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,7 +4234,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +4245,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4256,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,10 +4264,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,10 +4275,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,10 +4286,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,10 +4297,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,10 +4308,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,10 +4319,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,10 +4330,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,10 +4341,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,10 +4352,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,10 +4363,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,10 +4374,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,10 +4385,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,10 +4396,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,10 +4407,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,10 +4418,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,10 +4429,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,10 +4440,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,10 +4451,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,10 +4462,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,10 +4473,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,10 +4484,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,10 +4495,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,10 +4506,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,10 +4517,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,10 +4528,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,10 +4539,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,10 +4550,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,10 +4561,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,10 +4572,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,10 +4583,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,10 +4594,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,10 +4605,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,10 +4616,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4926,8 +4640,8 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4943,13 +4657,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4960,10 +4674,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4974,10 +4688,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4988,10 +4702,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5002,10 +4716,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5016,10 +4730,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5030,10 +4744,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5044,10 +4758,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,10 +4772,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,10 +4786,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,10 +4800,10 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,10 +4814,10 @@
         <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,10 +4828,10 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,10 +4842,10 @@
         <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,10 +4856,10 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,10 +4870,10 @@
         <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,10 +4884,10 @@
         <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,10 +4898,10 @@
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,10 +4912,10 @@
         <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,13 +4923,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,13 +4937,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,13 +4951,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,13 +4965,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,13 +4979,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,13 +4993,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,13 +5007,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,13 +5021,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,13 +5035,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5335,13 +5049,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,13 +5063,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5363,13 +5077,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,13 +5091,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,13 +5105,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,13 +5119,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,13 +5133,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,13 +5147,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,13 +5161,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5461,13 +5175,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,13 +5189,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,13 +5203,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5503,13 +5217,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5517,13 +5231,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,13 +5245,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,13 +5259,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,13 +5273,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,13 +5287,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,13 +5301,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,13 +5315,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5615,13 +5329,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,13 +5343,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,13 +5357,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,13 +5371,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="247">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -162,544 +162,586 @@
     <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Catatan Terpakai</t>
+    <t xml:space="preserve">Asset Document Maintenance Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Catatan Dokumen Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record/:record/used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan Dokumen Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record/:record/used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan Dokumen Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view, show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view, create, show, update, delete, restore, destroy</t>
   </si>
   <si>
     <t xml:space="preserve">infrastructure-asset-document-maintenance-record-used</t>
   </si>
   <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Catatan Terpakai</t>
-  </si>
-  <si>
     <t xml:space="preserve">infrastructure-asset-document-tax-record-used</t>
   </si>
   <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
     <t xml:space="preserve">infrastructure-asset-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax/:tax/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">view, show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">view, create, show, update, delete, restore, destroy</t>
   </si>
   <si>
     <t xml:space="preserve">role</t>
@@ -1187,18 +1229,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="62.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="84.21"/>
@@ -1507,10 +1549,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -1519,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1530,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K9" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1542,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -1568,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K10" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1644,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="K12" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1682,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K13" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1720,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="K14" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1758,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="K15" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1823,36 +1865,36 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -1861,15 +1903,18 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H18" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K18" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1881,13 +1926,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
@@ -1896,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1907,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K19" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1919,13 +1964,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -1934,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1945,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K20" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1957,13 +2002,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
@@ -1972,33 +2017,33 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -2007,36 +2052,36 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
@@ -2045,30 +2090,30 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H23" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>109</v>
@@ -2098,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2136,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2174,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2182,10 +2227,10 @@
         <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -2194,18 +2239,15 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I27" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>118</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K27" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2217,13 +2259,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -2232,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H28" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2243,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K28" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2255,13 +2297,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -2270,7 +2312,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2281,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2293,13 +2335,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
@@ -2308,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2319,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2331,7 +2373,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>136</v>
@@ -2357,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="K31" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2448,10 +2490,10 @@
         <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -2460,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2471,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="K34" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2483,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>151</v>
@@ -2509,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K35" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2600,10 +2642,10 @@
         <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>33</v>
@@ -2612,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H38" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2623,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K38" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2635,7 +2677,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>166</v>
@@ -2661,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K39" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2752,10 +2794,10 @@
         <v>177</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>33</v>
@@ -2764,7 +2806,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H42" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2775,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="K42" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2787,13 +2829,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>33</v>
@@ -2802,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H43" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2813,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K43" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2825,13 +2867,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>33</v>
@@ -2840,7 +2882,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H44" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2851,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K44" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2863,13 +2905,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>33</v>
@@ -2878,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H45" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2889,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="K45" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2901,13 +2943,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>33</v>
@@ -2916,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H46" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2927,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K46" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2938,14 +2980,14 @@
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>33</v>
@@ -2954,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H47" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2965,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K47" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2976,14 +3018,14 @@
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>33</v>
@@ -2992,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H48" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3003,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="K48" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3015,13 +3057,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>33</v>
@@ -3030,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H49" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3041,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K49" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3052,14 +3094,14 @@
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>33</v>
@@ -3068,7 +3110,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H50" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3079,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K50" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3090,14 +3132,14 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>33</v>
@@ -3106,32 +3148,32 @@
         <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H51" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3154,34 +3196,136 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="J52" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="K52" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="11"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="K53" s="9"/>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="11"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="K54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H55" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C56" s="11"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="C57" s="11"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H58" s="1"/>
@@ -3251,11 +3395,11 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
@@ -3263,11 +3407,11 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
@@ -3303,7 +3447,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
@@ -3315,7 +3459,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
@@ -3346,6 +3490,18 @@
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3381,10 +3537,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3395,7 +3551,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3406,7 +3562,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3417,7 +3573,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3428,7 +3584,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3439,7 +3595,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3450,7 +3606,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3458,10 +3614,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,10 +3625,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,10 +3636,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,10 +3647,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,10 +3658,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,10 +3669,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,10 +3680,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,10 +3691,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,10 +3702,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,10 +3713,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,10 +3724,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,10 +3735,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,10 +3746,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,10 +3757,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,10 +3768,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,10 +3779,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,10 +3790,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,10 +3812,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,10 +3823,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,10 +3834,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,10 +3845,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,10 +3856,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,10 +3867,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,10 +3878,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,10 +3889,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,10 +3900,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,10 +3911,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,10 +3922,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,10 +3933,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,10 +3944,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,10 +3955,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,10 +3966,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,10 +3977,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,10 +3988,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,10 +3999,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,10 +4010,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,10 +4021,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3876,10 +4032,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,10 +4043,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,10 +4054,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,10 +4065,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,10 +4076,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,10 +4087,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,10 +4098,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3981,7 +4137,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3989,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4005,7 +4161,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,12 +4169,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4055,10 +4211,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4069,7 +4225,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4080,7 +4236,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4091,7 +4247,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4102,7 +4258,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4113,7 +4269,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4124,7 +4280,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4132,10 +4288,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,10 +4299,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,10 +4310,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,10 +4321,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,10 +4332,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,10 +4343,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,10 +4354,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,10 +4365,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,10 +4376,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4231,10 +4387,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,10 +4398,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,10 +4409,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4264,10 +4420,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,10 +4431,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,10 +4442,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,10 +4453,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,10 +4464,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,10 +4475,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,10 +4486,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,10 +4497,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,10 +4508,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,10 +4519,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,10 +4530,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,10 +4541,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4396,10 +4552,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,10 +4563,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,10 +4574,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,10 +4585,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,10 +4596,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,10 +4607,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,10 +4618,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,10 +4629,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,10 +4640,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,10 +4651,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,10 +4662,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,10 +4673,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,10 +4684,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,10 +4695,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,10 +4706,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,10 +4717,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,10 +4728,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,10 +4739,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,10 +4750,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,10 +4761,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,10 +4772,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4657,13 +4813,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4674,10 +4830,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4688,10 +4844,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4702,10 +4858,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4716,10 +4872,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4730,10 +4886,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4744,10 +4900,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4755,13 +4911,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,13 +4925,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4783,13 +4939,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,13 +4953,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,13 +4967,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,13 +4981,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,13 +4995,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,13 +5009,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,13 +5023,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,13 +5037,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4895,13 +5051,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,13 +5065,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,13 +5079,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,13 +5093,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4951,13 +5107,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,13 +5121,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,13 +5135,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,13 +5149,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,13 +5163,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,13 +5177,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,13 +5191,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,13 +5205,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,13 +5219,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,13 +5233,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,13 +5247,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,13 +5261,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5119,13 +5275,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,13 +5289,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,13 +5303,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,13 +5317,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,13 +5331,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,13 +5345,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,13 +5359,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,13 +5373,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,13 +5387,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,13 +5401,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,13 +5415,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,13 +5429,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5287,13 +5443,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,13 +5457,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,13 +5471,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,13 +5485,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,13 +5499,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,13 +5513,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,13 +5527,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="282">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -264,7 +264,7 @@
     <t xml:space="preserve">infrastructure-asset-maintenance-record-used-asset</t>
   </si>
   <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used-asset</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Maintenance Record Used Document</t>
@@ -276,6 +276,9 @@
     <t xml:space="preserve">infrastructure-asset-maintenance-record-used-document</t>
   </si>
   <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used-document</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asset Tax</t>
   </si>
   <si>
@@ -300,21 +303,33 @@
     <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">Asset Tax Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used-asset</t>
   </si>
   <si>
     <t xml:space="preserve">Infrastructure-asset-tax-record</t>
   </si>
   <si>
+    <t xml:space="preserve">Asset Tax Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan Document Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used-document</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tax</t>
   </si>
   <si>
@@ -339,16 +354,28 @@
     <t xml:space="preserve">tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">Tax Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan Document Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record/:record/used-document</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance</t>
@@ -375,16 +402,28 @@
     <t xml:space="preserve">maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">Maintenance Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan Document Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/record/:record/used-document</t>
   </si>
   <si>
     <t xml:space="preserve">Document</t>
@@ -420,18 +459,27 @@
     <t xml:space="preserve">document/:document/tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-record-used</t>
+    <t xml:space="preserve">Document Tax Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record-used-asset</t>
   </si>
   <si>
     <t xml:space="preserve">document/:document/tax/:tax/record/:record/used</t>
   </si>
   <si>
+    <t xml:space="preserve">Document Tax Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan Document Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record-used-document</t>
+  </si>
+  <si>
     <t xml:space="preserve">Document Maintenance</t>
   </si>
   <si>
@@ -456,16 +504,28 @@
     <t xml:space="preserve">document/:document/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">Document Maintenance Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan Document Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used-document</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset</t>
@@ -501,16 +561,28 @@
     <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">Unit Asset Tax Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan Document Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used-document</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Documents</t>
@@ -579,16 +651,28 @@
     <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan  DokumenTerpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used-document</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Maintenance</t>
@@ -615,16 +699,28 @@
     <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">Unit Asset Maintenance Record Used Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance Record Used Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan Dokumen Terpakai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used-document</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document</t>
@@ -666,13 +762,22 @@
     <t xml:space="preserve">Unit Document Maintenance Record Used</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Document Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">Unit Document Perawatan Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Perawatan Catatan Dokumen Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used-document</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document Tax</t>
@@ -702,13 +807,22 @@
     <t xml:space="preserve">Unit Document Tax Record Used</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Documents Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">Unit Documents Pajak Catatan Asset Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-record-used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Pajak Catatan Dokumen Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-record-used-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used-document</t>
   </si>
   <si>
     <t xml:space="preserve">Deadline</t>
@@ -733,15 +847,6 @@
   </si>
   <si>
     <t xml:space="preserve">view, create, show, update, delete, restore, destroy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-record-used</t>
   </si>
   <si>
     <t xml:space="preserve">role</t>
@@ -1123,7 +1228,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="D53:D65 C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1229,16 +1334,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D53:D65 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="62.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.55"/>
@@ -1865,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H17" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1888,13 +1993,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -1903,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1926,13 +2031,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
@@ -1941,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1952,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1964,13 +2069,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -1979,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1990,25 +2095,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
@@ -2017,33 +2122,36 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H21" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="K21" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -2052,18 +2160,15 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I22" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>98</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K22" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2075,13 +2180,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
@@ -2090,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H23" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2101,25 +2206,25 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -2128,33 +2233,36 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H24" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I24" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="K24" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>33</v>
@@ -2163,7 +2271,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H25" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2174,25 +2282,25 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K25" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>33</v>
@@ -2201,36 +2309,33 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I26" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>114</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K26" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -2239,33 +2344,36 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H27" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I27" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="K27" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -2274,7 +2382,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H28" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2285,25 +2393,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K28" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -2312,7 +2420,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H29" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2323,25 +2431,25 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K29" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
@@ -2350,18 +2458,15 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>129</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K30" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2373,13 +2478,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -2388,7 +2493,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2399,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K31" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2411,13 +2516,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -2426,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H32" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2437,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K32" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2449,13 +2554,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>33</v>
@@ -2464,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H33" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2475,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K33" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2487,13 +2592,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -2502,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2513,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="K34" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2525,13 +2630,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -2540,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H35" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2551,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K35" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2563,13 +2668,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -2578,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H36" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2589,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K36" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2601,13 +2706,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>33</v>
@@ -2616,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H37" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2627,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K37" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2639,13 +2744,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>33</v>
@@ -2654,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H38" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2665,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="K38" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2677,13 +2782,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>33</v>
@@ -2692,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H39" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2703,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="K39" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2715,13 +2820,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>33</v>
@@ -2730,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H40" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2741,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K40" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2753,13 +2858,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>33</v>
@@ -2768,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H41" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2779,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K41" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2791,13 +2896,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>33</v>
@@ -2806,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H42" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2817,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K42" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2829,13 +2934,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>33</v>
@@ -2844,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H43" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2855,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K43" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2867,13 +2972,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>33</v>
@@ -2882,7 +2987,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H44" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2893,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="K44" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2905,13 +3010,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>33</v>
@@ -2920,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H45" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2931,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="K45" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2943,13 +3048,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>33</v>
@@ -2958,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H46" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2969,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K46" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2981,13 +3086,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>33</v>
@@ -2996,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H47" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3007,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K47" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3019,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>201</v>
@@ -3045,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="K48" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3094,7 +3199,7 @@
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3132,7 +3237,7 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3159,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K51" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3197,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="K52" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3280,18 +3385,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>228</v>
+      <c r="C55" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>33</v>
@@ -3300,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H55" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3310,62 +3415,402 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="J55" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="K55" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="11"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="K56" s="9"/>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="11"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C66" s="11"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="C67" s="11"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H68" s="1"/>
@@ -3407,11 +3852,11 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
@@ -3447,11 +3892,11 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
@@ -3459,7 +3904,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
@@ -3499,9 +3944,49 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3519,10 +4004,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D53:D65 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3537,10 +4022,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3551,7 +4036,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3562,7 +4047,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3573,7 +4058,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3584,7 +4069,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3595,7 +4080,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3606,7 +4091,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3614,10 +4099,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,10 +4110,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,10 +4121,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,10 +4132,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,10 +4143,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,10 +4154,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,10 +4165,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,10 +4176,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,10 +4187,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,10 +4198,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,10 +4209,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,10 +4220,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,10 +4231,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,10 +4242,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,10 +4253,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,10 +4264,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,10 +4275,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,10 +4286,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,10 +4297,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,10 +4308,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,10 +4319,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,10 +4330,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,10 +4341,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,10 +4352,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,10 +4363,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,10 +4374,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,10 +4385,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,10 +4396,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,10 +4407,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,10 +4418,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,10 +4429,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,10 +4440,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,10 +4451,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,10 +4462,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,10 +4473,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,10 +4484,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,10 +4495,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,10 +4506,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,10 +4517,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,10 +4528,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,10 +4539,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,10 +4550,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,10 +4561,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,10 +4572,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,10 +4583,153 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +4751,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="D53:D65 I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4137,7 +4765,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4145,7 +4773,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4161,7 +4789,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,12 +4797,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4193,10 +4821,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D53:D65 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4211,10 +4839,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4225,7 +4853,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4236,7 +4864,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4247,7 +4875,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4258,7 +4886,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4269,7 +4897,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4280,7 +4908,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4288,10 +4916,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,10 +4927,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,10 +4938,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,10 +4949,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,10 +4960,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,10 +4971,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,10 +4982,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,10 +4993,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,10 +5004,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,10 +5015,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,10 +5026,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,10 +5037,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,10 +5048,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,10 +5059,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,10 +5070,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,10 +5081,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,10 +5092,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,10 +5103,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,10 +5114,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,10 +5125,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,10 +5136,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,10 +5147,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,10 +5158,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4541,10 +5169,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,10 +5180,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,10 +5191,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,10 +5202,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,10 +5213,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4596,10 +5224,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,10 +5235,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,10 +5246,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4629,10 +5257,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,10 +5268,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4651,10 +5279,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,10 +5290,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4673,10 +5301,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,10 +5312,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,10 +5323,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,10 +5334,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,10 +5345,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,10 +5356,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,10 +5367,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,10 +5378,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,10 +5389,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,10 +5400,153 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4794,10 +5565,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4813,13 +5584,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4830,10 +5601,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4844,10 +5615,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4858,10 +5629,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4872,10 +5643,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4886,10 +5657,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4900,10 +5671,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4911,13 +5682,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,13 +5696,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,13 +5710,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,13 +5724,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,13 +5738,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,13 +5752,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,13 +5766,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,13 +5780,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,13 +5794,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,13 +5808,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,13 +5822,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,13 +5836,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5079,13 +5850,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,13 +5864,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,13 +5878,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,13 +5892,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,13 +5906,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,13 +5920,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,13 +5934,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,13 +5948,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,13 +5962,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,13 +5976,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,13 +5990,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,13 +6004,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,13 +6018,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,13 +6032,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,13 +6046,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,13 +6060,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5303,13 +6074,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,13 +6088,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,13 +6102,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,13 +6116,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,13 +6130,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5373,13 +6144,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,13 +6158,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5401,13 +6172,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,13 +6186,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,13 +6200,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,13 +6214,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,13 +6228,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5471,13 +6242,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,13 +6256,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,13 +6270,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,13 +6284,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,13 +6298,195 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>246</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="233">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -162,28 +162,16 @@
     <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Document Maintenance Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Catatan Dokumen Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record/:record/used-document</t>
+    <t xml:space="preserve">Asset Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-asset-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Document Tax</t>
@@ -207,28 +195,16 @@
     <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Document Tax Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Catatan Dokumen Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record/:record/used-document</t>
+    <t xml:space="preserve">Asset Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Maintenance</t>
@@ -255,28 +231,16 @@
     <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Maintenance Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan Catatan Dokumen Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used-document</t>
+    <t xml:space="preserve">Asset Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Tax</t>
@@ -303,33 +267,21 @@
     <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Tax Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used-asset</t>
+    <t xml:space="preserve">Asset Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Infrastructure-asset-tax-record</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Tax Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan Document Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used-document</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tax</t>
   </si>
   <si>
@@ -357,25 +309,13 @@
     <t xml:space="preserve">Tax Record Used Asset</t>
   </si>
   <si>
-    <t xml:space="preserve">Pajak Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Catatan Document Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record/:record/used-document</t>
+    <t xml:space="preserve">Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:tax/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance</t>
@@ -402,28 +342,16 @@
     <t xml:space="preserve">maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenance Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Catatan Document Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/record/:record/used-document</t>
+    <t xml:space="preserve">Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Document</t>
@@ -459,27 +387,18 @@
     <t xml:space="preserve">document/:document/tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Tax Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-record-used-asset</t>
+    <t xml:space="preserve">Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-record-used</t>
   </si>
   <si>
     <t xml:space="preserve">document/:document/tax/:tax/record/:record/used</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Tax Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan Document Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-record-used-document</t>
-  </si>
-  <si>
     <t xml:space="preserve">Document Maintenance</t>
   </si>
   <si>
@@ -504,28 +423,16 @@
     <t xml:space="preserve">document/:document/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Maintenance Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document Catatan Document Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used-document</t>
+    <t xml:space="preserve">Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset</t>
@@ -561,28 +468,16 @@
     <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Tax Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan Document Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used-document</t>
+    <t xml:space="preserve">Unit Asset Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Documents</t>
@@ -651,28 +546,16 @@
     <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Perawatan Catatan  DokumenTerpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used-document</t>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record Used </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Maintenance</t>
@@ -699,28 +582,16 @@
     <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Asset Maintenance Record Used Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance Record Used Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan Catatan Dokumen Terpakai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used-document</t>
+    <t xml:space="preserve">Unit Asset Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document</t>
@@ -762,22 +633,13 @@
     <t xml:space="preserve">Unit Document Maintenance Record Used</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Document Perawatan Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Perawatan Catatan Dokumen Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used-document</t>
+    <t xml:space="preserve">Unit Document Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document Tax</t>
@@ -807,22 +669,13 @@
     <t xml:space="preserve">Unit Document Tax Record Used</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit Documents Pajak Catatan Asset Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-record-used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Pajak Catatan Dokumen Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-record-used-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used-document</t>
+    <t xml:space="preserve">Unit Documents Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-record-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used</t>
   </si>
   <si>
     <t xml:space="preserve">Deadline</t>
@@ -1228,7 +1081,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="D53:D65 C23"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1334,10 +1187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D53:D65 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1654,10 +1507,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -1666,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -1677,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K9" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1689,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -1715,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K10" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1791,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="K12" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1829,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K13" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1867,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="K14" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1905,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="K15" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -1981,25 +1834,25 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K17" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -2008,18 +1861,15 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>32</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K18" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2031,13 +1881,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
@@ -2046,7 +1896,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2057,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2069,13 +1919,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -2084,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H20" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2095,14 +1945,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K20" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2129,18 +1979,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>96</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K21" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2167,15 +2014,18 @@
         <v>0</v>
       </c>
       <c r="I22" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="K22" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2213,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2221,10 +2071,10 @@
         <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -2233,18 +2083,15 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I24" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>107</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K24" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2256,13 +2103,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>33</v>
@@ -2271,36 +2118,36 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>33</v>
@@ -2309,33 +2156,36 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -2344,36 +2194,36 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -2382,36 +2232,36 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -2420,30 +2270,30 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H29" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>133</v>
@@ -2465,8 +2315,11 @@
         <v>0</v>
       </c>
       <c r="I30" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="K30" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2481,10 +2334,10 @@
         <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -2493,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H31" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2504,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="K31" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2516,13 +2369,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -2531,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2542,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K32" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2554,13 +2407,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>33</v>
@@ -2569,7 +2422,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H33" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2580,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K33" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2592,13 +2445,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -2607,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2618,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K34" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2633,10 +2486,10 @@
         <v>151</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -2645,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H35" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2656,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K35" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2668,13 +2521,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -2683,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H36" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2694,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K36" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2706,13 +2559,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>33</v>
@@ -2721,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H37" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2732,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K37" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2744,13 +2597,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>33</v>
@@ -2759,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H38" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2770,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K38" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2782,13 +2635,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>33</v>
@@ -2797,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H39" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2808,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="K39" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2820,13 +2673,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>33</v>
@@ -2835,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H40" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2846,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2858,13 +2711,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>33</v>
@@ -2873,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H41" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2884,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K41" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2896,13 +2749,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>33</v>
@@ -2911,7 +2764,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2922,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="K42" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2934,13 +2787,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>33</v>
@@ -2949,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H43" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2960,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K43" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -2972,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>186</v>
@@ -2998,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K44" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3036,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="K45" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3085,7 +2938,7 @@
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3123,14 +2976,14 @@
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>33</v>
@@ -3139,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H48" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3150,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K48" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3162,13 +3015,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>33</v>
@@ -3177,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H49" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3188,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K49" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3200,13 +3053,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>33</v>
@@ -3215,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H50" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3226,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K50" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3238,13 +3091,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>33</v>
@@ -3253,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H51" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3264,21 +3117,21 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K51" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>217</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3301,516 +3154,74 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="K52" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H53" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K53" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+    <row r="53" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C53" s="11"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H54" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="C54" s="11"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H55" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H56" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H57" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H58" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K58" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H59" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K59" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H60" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K60" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H61" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H62" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H63" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H64" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K64" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H65" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C66" s="11"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="11"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H68" s="1"/>
@@ -3840,11 +3251,11 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
@@ -3896,7 +3307,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
@@ -3936,58 +3347,19 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4004,10 +3376,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D53:D65 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4022,10 +3394,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4036,7 +3408,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4047,7 +3419,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4058,7 +3430,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4069,7 +3441,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4080,7 +3452,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4091,7 +3463,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4102,7 +3474,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,10 +3482,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,7 +3496,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,7 +3507,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,7 +3518,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,7 +3529,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,7 +3540,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,7 +3551,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,7 +3562,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +3573,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,10 +3581,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,10 +3592,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4231,10 +3603,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,7 +3617,7 @@
         <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +3628,7 @@
         <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,7 +3639,7 @@
         <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,10 +3647,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,10 +3658,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,10 +3669,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,10 +3680,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,10 +3691,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,10 +3702,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,7 +3716,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,10 +3724,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,10 +3735,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,10 +3746,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,10 +3757,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4396,10 +3768,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,10 +3779,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,10 +3790,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,10 +3812,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,10 +3823,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,10 +3834,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,10 +3845,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,10 +3856,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,7 +3870,7 @@
         <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +3881,7 @@
         <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,7 +3892,7 @@
         <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +3903,7 @@
         <v>199</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,10 +3911,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,10 +3922,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,10 +3933,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,10 +3944,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,150 +3958,7 @@
         <v>218</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +3980,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="D53:D65 I22"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4765,7 +3994,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4773,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4789,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,12 +4026,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4823,8 +4052,8 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D53:D65 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4839,10 +4068,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4853,7 +4082,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4864,7 +4093,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4875,7 +4104,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4886,7 +4115,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4897,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4908,7 +4137,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4919,7 +4148,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,10 +4156,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +4170,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4181,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +4192,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,7 +4203,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,7 +4214,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,7 +4225,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,7 +4236,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,7 +4247,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5026,10 +4255,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,10 +4266,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,10 +4277,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +4291,7 @@
         <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,7 +4302,7 @@
         <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,7 +4313,7 @@
         <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,10 +4321,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,10 +4332,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,10 +4343,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,10 +4354,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,10 +4365,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,10 +4376,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,7 +4390,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,10 +4398,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,10 +4409,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,10 +4420,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,10 +4431,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,10 +4442,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,10 +4453,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,10 +4464,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,10 +4475,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,10 +4486,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,10 +4497,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,10 +4508,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,10 +4519,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,10 +4530,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,7 +4544,7 @@
         <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5326,7 +4555,7 @@
         <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,7 +4566,7 @@
         <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,7 +4577,7 @@
         <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,10 +4585,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,10 +4596,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,10 +4607,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,10 +4618,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,151 +4632,60 @@
         <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="C65" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5567,8 +4705,8 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53:D65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5584,13 +4722,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5601,10 +4739,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5615,10 +4753,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5629,10 +4767,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5643,10 +4781,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5657,10 +4795,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5671,10 +4809,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5685,10 +4823,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,13 +4834,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,10 +4851,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,10 +4865,10 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,10 +4879,10 @@
         <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,10 +4893,10 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,10 +4907,10 @@
         <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,10 +4921,10 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,10 +4935,10 @@
         <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,10 +4949,10 @@
         <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,13 +4960,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,13 +4974,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,13 +4988,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,10 +5005,10 @@
         <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,10 +5019,10 @@
         <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,10 +5033,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,13 +5044,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,13 +5058,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5934,13 +5072,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5948,13 +5086,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,13 +5100,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,13 +5114,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,10 +5131,10 @@
         <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,13 +5142,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,13 +5156,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,13 +5170,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6046,13 +5184,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,13 +5198,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6074,13 +5212,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,13 +5226,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6102,13 +5240,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,13 +5254,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,13 +5268,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,13 +5282,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,13 +5296,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,13 +5310,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,10 +5327,10 @@
         <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,10 +5341,10 @@
         <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6217,10 +5355,10 @@
         <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6231,10 +5369,10 @@
         <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6242,13 +5380,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,13 +5394,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,13 +5408,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6284,13 +5422,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,193 +5439,76 @@
         <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -306,7 +306,7 @@
     <t xml:space="preserve">tax/:tax/record</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax Record Used Asset</t>
+    <t xml:space="preserve">Tax Record Used</t>
   </si>
   <si>
     <t xml:space="preserve">Pajak Catatan Terpakai</t>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -156,10 +156,10 @@
     <t xml:space="preserve">Asset Document Maintenance Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record</t>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Document Maintenance Record Used</t>
@@ -168,10 +168,10 @@
     <t xml:space="preserve">Asset Document Maintenance Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure-asset-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">Infrastructure-asset-document-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Document Tax</t>
@@ -189,10 +189,10 @@
     <t xml:space="preserve">Asset Document Tax Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record</t>
+    <t xml:space="preserve">infrastructure-asset-document-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Document Tax Record Used</t>
@@ -201,10 +201,10 @@
     <t xml:space="preserve">Asset Document Tax Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-asset-document-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Maintenance</t>
@@ -225,10 +225,10 @@
     <t xml:space="preserve">Asset Perawatan Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record</t>
+    <t xml:space="preserve">infrastructure-asset-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Maintenance Record Used</t>
@@ -237,10 +237,10 @@
     <t xml:space="preserve">Asset Perawatan Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-asset-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Tax</t>
@@ -261,10 +261,10 @@
     <t xml:space="preserve">Asset Pajak Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record</t>
+    <t xml:space="preserve">infrastructure-asset-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Asset Tax Record Used</t>
@@ -273,13 +273,13 @@
     <t xml:space="preserve">Asset Pajak Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-asset-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:tax/record/:record/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure-asset-tax-record</t>
+    <t xml:space="preserve">infrastructure-asset-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-asset-tax-note</t>
   </si>
   <si>
     <t xml:space="preserve">Tax</t>
@@ -300,10 +300,10 @@
     <t xml:space="preserve">Pajak Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record</t>
+    <t xml:space="preserve">infrastructure-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Tax Record Used</t>
@@ -312,10 +312,10 @@
     <t xml:space="preserve">Pajak Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance</t>
@@ -336,10 +336,10 @@
     <t xml:space="preserve">Perawatan Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/record</t>
+    <t xml:space="preserve">infrastructure-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance Record Used</t>
@@ -348,10 +348,10 @@
     <t xml:space="preserve">Perawatan Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Document</t>
@@ -381,10 +381,10 @@
     <t xml:space="preserve">Pajak Document Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax/:tax/record</t>
+    <t xml:space="preserve">infrastructure-document-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Document Tax Record Used</t>
@@ -393,10 +393,10 @@
     <t xml:space="preserve">Pajak Document Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-document-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Document Maintenance</t>
@@ -417,10 +417,10 @@
     <t xml:space="preserve">Perawatan Document Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:maintenance/record</t>
+    <t xml:space="preserve">infrastructure-document-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Document Maintenance Record Used</t>
@@ -429,10 +429,10 @@
     <t xml:space="preserve">Perawatan Document Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-document-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset</t>
@@ -462,10 +462,10 @@
     <t xml:space="preserve">Unit Asset Pajak Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record</t>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:note/note</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Tax Record Used</t>
@@ -474,10 +474,10 @@
     <t xml:space="preserve">Unit Asset Pajak Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Documents</t>
@@ -507,10 +507,10 @@
     <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record</t>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Document Tax Record Used</t>
@@ -519,10 +519,10 @@
     <t xml:space="preserve">Unit Asset Document Pajak Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Document Maintenance</t>
@@ -540,10 +540,10 @@
     <t xml:space="preserve">Unit Asset Document Perawatan Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record</t>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Document Maintenance Record Used </t>
@@ -552,10 +552,10 @@
     <t xml:space="preserve">Unit Asset Document Perawatan Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Maintenance</t>
@@ -576,10 +576,10 @@
     <t xml:space="preserve">Unit Asset Perawatan Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record</t>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Maintenance Record Used</t>
@@ -588,10 +588,10 @@
     <t xml:space="preserve">Unit Asset Perawatan Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document</t>
@@ -624,10 +624,10 @@
     <t xml:space="preserve">Unit Document Perawatan Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record</t>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document Maintenance Record Used</t>
@@ -636,10 +636,10 @@
     <t xml:space="preserve">Unit Document Perawatan Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:maintenance/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document Tax</t>
@@ -660,10 +660,10 @@
     <t xml:space="preserve">Unit Documents Pajak Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record</t>
+    <t xml:space="preserve">infrastructure-unit-document-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Document Tax Record Used</t>
@@ -672,10 +672,10 @@
     <t xml:space="preserve">Unit Documents Pajak Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-record-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:tax/record/:record/used</t>
+    <t xml:space="preserve">infrastructure-unit-document-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">Deadline</t>
@@ -1189,8 +1189,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3378,8 +3378,8 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4052,8 +4052,8 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4705,8 +4705,8 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="241">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Asset Document Maintenance Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure-asset-document-maintenance-note-used</t>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-note-used</t>
   </si>
   <si>
     <t xml:space="preserve">asset/:asset/document/:document/maintenance/:record/note/:note/used</t>
@@ -685,6 +685,30 @@
   </si>
   <si>
     <t xml:space="preserve">deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-deadline-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline Note Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-deadline-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline/:record/note/:note/used</t>
   </si>
   <si>
     <t xml:space="preserve">page</t>
@@ -1080,8 +1104,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="D53:D54 C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1189,8 +1213,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D53:D54 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3160,16 +3184,80 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="11"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="K53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="11"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H55" s="1"/>
@@ -3376,10 +3464,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D53:D54 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3394,10 +3482,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3408,7 +3496,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3419,7 +3507,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3430,7 +3518,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3441,7 +3529,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3452,7 +3540,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3463,7 +3551,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3474,7 +3562,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,7 +3573,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,7 +3584,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,7 +3595,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,7 +3606,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,7 +3617,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,7 +3639,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,7 +3650,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,7 +3661,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,7 +3672,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,7 +3683,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,7 +3694,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,7 +3705,7 @@
         <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,7 +3716,7 @@
         <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,7 +3727,7 @@
         <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,7 +3738,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,7 +3749,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,7 +3760,7 @@
         <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,7 +3771,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,7 +3782,7 @@
         <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,7 +3793,7 @@
         <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,7 +3804,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,7 +3826,7 @@
         <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,7 +3837,7 @@
         <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,7 +3848,7 @@
         <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,7 +3859,7 @@
         <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,7 +3870,7 @@
         <v>156</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,7 +3881,7 @@
         <v>160</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,7 +3892,7 @@
         <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,7 +3903,7 @@
         <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,7 +3914,7 @@
         <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,7 +3925,7 @@
         <v>175</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,7 +3936,7 @@
         <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,7 +3947,7 @@
         <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,7 +3958,7 @@
         <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,7 +3969,7 @@
         <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,7 +3980,7 @@
         <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,7 +3991,7 @@
         <v>199</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,7 +4002,7 @@
         <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,7 +4013,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,7 +4024,7 @@
         <v>211</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,7 +4035,7 @@
         <v>215</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,7 +4046,29 @@
         <v>218</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3979,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="D53:D54 I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3994,7 +4104,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4002,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4018,7 +4128,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,12 +4136,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4052,8 +4162,8 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D53:D54 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4068,10 +4178,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4082,7 +4192,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4093,7 +4203,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4104,7 +4214,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4115,7 +4225,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4126,7 +4236,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4137,7 +4247,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4148,7 +4258,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,7 +4269,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,7 +4280,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,7 +4291,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,7 +4302,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,7 +4313,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,7 +4324,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,7 +4335,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,7 +4346,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,7 +4357,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,7 +4368,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,7 +4379,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,7 +4390,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,7 +4401,7 @@
         <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,7 +4412,7 @@
         <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4324,7 +4434,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,7 +4445,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,7 +4456,7 @@
         <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,7 +4467,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,7 +4478,7 @@
         <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,7 +4489,7 @@
         <v>130</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,7 +4500,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,7 +4511,7 @@
         <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,7 +4522,7 @@
         <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,7 +4533,7 @@
         <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,7 +4544,7 @@
         <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,7 +4555,7 @@
         <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4456,7 +4566,7 @@
         <v>156</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4467,7 +4577,7 @@
         <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4588,7 @@
         <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,7 +4599,7 @@
         <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4610,7 @@
         <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,7 +4621,7 @@
         <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,7 +4632,7 @@
         <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,7 +4643,7 @@
         <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,7 +4654,7 @@
         <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,7 +4665,7 @@
         <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,7 +4676,7 @@
         <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4687,7 @@
         <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,7 +4698,7 @@
         <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,7 +4709,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,7 +4720,7 @@
         <v>211</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,7 +4731,7 @@
         <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,16 +4742,30 @@
         <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
@@ -4705,8 +4829,8 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4722,13 +4846,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4739,10 +4863,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4753,10 +4877,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4767,10 +4891,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4781,10 +4905,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4795,10 +4919,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4809,10 +4933,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4823,10 +4947,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,10 +4961,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,10 +4975,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,10 +4989,10 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,10 +5003,10 @@
         <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,10 +5017,10 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,10 +5031,10 @@
         <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,10 +5045,10 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,10 +5059,10 @@
         <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,10 +5073,10 @@
         <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,10 +5087,10 @@
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,10 +5101,10 @@
         <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,10 +5115,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,10 +5129,10 @@
         <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,10 +5143,10 @@
         <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,10 +5157,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,10 +5171,10 @@
         <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,10 +5185,10 @@
         <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,10 +5199,10 @@
         <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,10 +5213,10 @@
         <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,10 +5227,10 @@
         <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,10 +5241,10 @@
         <v>130</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,10 +5255,10 @@
         <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,10 +5269,10 @@
         <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,10 +5283,10 @@
         <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,10 +5297,10 @@
         <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,10 +5311,10 @@
         <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,10 +5325,10 @@
         <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,10 +5339,10 @@
         <v>156</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,10 +5353,10 @@
         <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5243,10 +5367,10 @@
         <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,10 +5381,10 @@
         <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,10 +5395,10 @@
         <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,10 +5409,10 @@
         <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,10 +5423,10 @@
         <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5313,10 +5437,10 @@
         <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,10 +5451,10 @@
         <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,10 +5465,10 @@
         <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,10 +5479,10 @@
         <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5369,10 +5493,10 @@
         <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,10 +5507,10 @@
         <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,10 +5521,10 @@
         <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,10 +5535,10 @@
         <v>211</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,10 +5549,10 @@
         <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5439,21 +5563,39 @@
         <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="4"/>
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="4"/>
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -465,7 +465,7 @@
     <t xml:space="preserve">infrastructure-unit-asset-tax-note</t>
   </si>
   <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:note/note</t>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:record/note</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Asset Tax Record Used</t>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="D53:D54 C23"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1213,8 +1213,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D53:D54 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3467,7 +3467,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D53:D54 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4090,7 +4090,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="D53:D54 I22"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4163,7 +4163,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D53:D54 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4829,8 +4829,8 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53:D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="242">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t xml:space="preserve">approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operator</t>
   </si>
   <si>
     <t xml:space="preserve">f</t>
@@ -1104,7 +1107,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1213,7 +1216,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -3466,7 +3469,7 @@
   </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4089,8 +4092,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4139,9 +4142,17 @@
         <v>236</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4162,7 +4173,7 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4192,7 +4203,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4203,7 +4214,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4214,7 +4225,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4225,7 +4236,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4236,7 +4247,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4247,7 +4258,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4258,7 +4269,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,7 +4280,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,7 +4291,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,7 +4302,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,7 +4313,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,7 +4324,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4324,7 +4335,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,7 +4346,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,7 +4357,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,7 +4368,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,7 +4379,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,7 +4390,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,7 +4401,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,7 +4412,7 @@
         <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,7 +4423,7 @@
         <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,7 +4434,7 @@
         <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,7 +4445,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,7 +4456,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4456,7 +4467,7 @@
         <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4467,7 +4478,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4489,7 @@
         <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,7 +4500,7 @@
         <v>130</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4511,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,7 +4522,7 @@
         <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,7 +4533,7 @@
         <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,7 +4544,7 @@
         <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,7 +4555,7 @@
         <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,7 +4566,7 @@
         <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,7 +4577,7 @@
         <v>156</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4588,7 @@
         <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,7 +4599,7 @@
         <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,7 +4610,7 @@
         <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,7 +4621,7 @@
         <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,7 +4632,7 @@
         <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,7 +4643,7 @@
         <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4643,7 +4654,7 @@
         <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4665,7 @@
         <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,7 +4676,7 @@
         <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +4687,7 @@
         <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,7 +4698,7 @@
         <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +4709,7 @@
         <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,7 +4720,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,7 +4731,7 @@
         <v>211</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,7 +4742,7 @@
         <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,7 +4753,7 @@
         <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4753,7 +4764,7 @@
         <v>222</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4764,7 +4775,7 @@
         <v>226</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,7 +4840,7 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -4852,7 +4863,7 @@
         <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4863,10 +4874,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4877,10 +4888,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4891,10 +4902,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4905,10 +4916,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4919,10 +4930,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4933,10 +4944,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4947,10 +4958,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4961,10 +4972,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,10 +4986,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,10 +5000,10 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,10 +5014,10 @@
         <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5017,10 +5028,10 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,10 +5042,10 @@
         <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,10 +5056,10 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,10 +5070,10 @@
         <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,10 +5084,10 @@
         <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,10 +5098,10 @@
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,10 +5112,10 @@
         <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,10 +5126,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5129,10 +5140,10 @@
         <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,10 +5154,10 @@
         <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,10 +5168,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,10 +5182,10 @@
         <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,10 +5196,10 @@
         <v>114</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5199,10 +5210,10 @@
         <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,10 +5224,10 @@
         <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,10 +5238,10 @@
         <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,10 +5252,10 @@
         <v>130</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,10 +5266,10 @@
         <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,10 +5280,10 @@
         <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,10 +5294,10 @@
         <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,10 +5308,10 @@
         <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,10 +5322,10 @@
         <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,10 +5336,10 @@
         <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5339,10 +5350,10 @@
         <v>156</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,10 +5364,10 @@
         <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,10 +5378,10 @@
         <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,10 +5392,10 @@
         <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,10 +5406,10 @@
         <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,10 +5420,10 @@
         <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,10 +5434,10 @@
         <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,10 +5448,10 @@
         <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,10 +5462,10 @@
         <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,10 +5476,10 @@
         <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,10 +5490,10 @@
         <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5493,10 +5504,10 @@
         <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,10 +5518,10 @@
         <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,10 +5532,10 @@
         <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,10 +5546,10 @@
         <v>211</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,10 +5560,10 @@
         <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,10 +5574,10 @@
         <v>218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,10 +5588,10 @@
         <v>222</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,10 +5602,10 @@
         <v>226</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="260">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">infrastructure</t>
   </si>
   <si>
-    <t xml:space="preserve">account_balance_wallet</t>
+    <t xml:space="preserve">weekend</t>
   </si>
   <si>
     <t xml:space="preserve">deep-orange</t>
@@ -132,597 +132,612 @@
     <t xml:space="preserve">infrastructure-asset</t>
   </si>
   <si>
+    <t xml:space="preserve">asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summarize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Maintenance Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Document Tax Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-document-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/document/:document/tax/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/maintenance/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-asset-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset/:asset/tax/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure-asset-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak Document Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/tax/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawatan Document Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-document-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document/:document/maintenance/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Maintenance Record Used </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Asset Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-asset-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Perawatan Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Maintenance Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Perawatan Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-maintenance-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Pajak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Tax Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Pajak Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Document Tax Record Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Documents Pajak Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-unit-document-tax-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit/:unit/document/:document/tax/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline Catatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-deadline-note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline/:record/note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline Note Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline Catatan Terpakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-deadline-note-used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline/:record/note/:note/used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure-record</t>
+  </si>
+  <si>
     <t xml:space="preserve">tune</t>
   </si>
   <si>
-    <t xml:space="preserve">asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Maintenance Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-maintenance-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/maintenance/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Document Tax Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-document-tax-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/document/:document/tax/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-maintenance-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/maintenance/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-asset-tax-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset/:asset/tax/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure-asset-tax-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-tax-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-maintenance-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pajak Document Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-tax-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/tax/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawatan Document Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-document-maintenance-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document/:document/maintenance/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-tax-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/tax/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-tax-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/tax/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Maintenance Record Used </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Document Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-document-maintenance-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/document/:document/maintenance/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Asset Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-asset-maintenance-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/asset/:asset/maintenance/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Maintenance Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Perawatan Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Maintenance Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Perawatan Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-maintenance-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/maintenance/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Pajak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Tax Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Pajak Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Document Tax Record Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Documents Pajak Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-unit-document-tax-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit/:unit/document/:document/tax/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-deadline-note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deadline/:record/note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline Note Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline Catatan Terpakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure-deadline-note-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deadline/:record/note/:note/used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure-record</t>
-  </si>
-  <si>
     <t xml:space="preserve">record</t>
   </si>
   <si>
@@ -732,7 +747,7 @@
     <t xml:space="preserve">Record Catatan</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure-record-note</t>
+    <t xml:space="preserve">infrastructure-record-note</t>
   </si>
   <si>
     <t xml:space="preserve">record/:record/note</t>
@@ -744,7 +759,7 @@
     <t xml:space="preserve">Record Catatan Terpakai</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure-record-note-used</t>
+    <t xml:space="preserve">infrastructure-record-note-used</t>
   </si>
   <si>
     <t xml:space="preserve">record/:record/note/:note/used</t>
@@ -1166,8 +1181,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1275,8 +1290,8 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="J58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1408,13 +1423,13 @@
         <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>28</v>
@@ -1432,16 +1447,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -1476,13 +1491,13 @@
         <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>28</v>
@@ -1491,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>27</v>
@@ -1502,22 +1517,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>28</v>
@@ -1537,22 +1552,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>28</v>
@@ -1561,7 +1576,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>27</v>
@@ -1572,22 +1587,22 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>28</v>
@@ -1596,7 +1611,7 @@
         <v>28</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>27</v>
@@ -1607,31 +1622,31 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>27</v>
@@ -1642,31 +1657,31 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>27</v>
@@ -1677,22 +1692,22 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>28</v>
@@ -1712,31 +1727,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>27</v>
@@ -1747,31 +1762,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>27</v>
@@ -1782,22 +1797,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>28</v>
@@ -1817,31 +1832,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>27</v>
@@ -1852,22 +1867,22 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>28</v>
@@ -1876,7 +1891,7 @@
         <v>28</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>27</v>
@@ -1887,22 +1902,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>28</v>
@@ -1920,31 +1935,31 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>27</v>
@@ -1955,31 +1970,31 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>27</v>
@@ -1990,22 +2005,22 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>28</v>
@@ -2023,31 +2038,31 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>27</v>
@@ -2058,31 +2073,31 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>27</v>
@@ -2093,22 +2108,22 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>28</v>
@@ -2126,31 +2141,31 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>27</v>
@@ -2161,31 +2176,31 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>27</v>
@@ -2196,31 +2211,31 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>27</v>
@@ -2231,22 +2246,22 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>28</v>
@@ -2255,7 +2270,7 @@
         <v>28</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>27</v>
@@ -2266,31 +2281,31 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>27</v>
@@ -2301,31 +2316,31 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>27</v>
@@ -2336,22 +2351,22 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>28</v>
@@ -2371,31 +2386,31 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>27</v>
@@ -2406,31 +2421,31 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>27</v>
@@ -2441,31 +2456,31 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>27</v>
@@ -2476,22 +2491,22 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>28</v>
@@ -2500,7 +2515,7 @@
         <v>28</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>27</v>
@@ -2511,31 +2526,31 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>27</v>
@@ -2546,31 +2561,31 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>27</v>
@@ -2581,31 +2596,31 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>27</v>
@@ -2616,22 +2631,22 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>28</v>
@@ -2640,7 +2655,7 @@
         <v>28</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>27</v>
@@ -2651,31 +2666,31 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>27</v>
@@ -2686,31 +2701,31 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="K41" s="11" t="s">
         <v>27</v>
@@ -2721,22 +2736,22 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>28</v>
@@ -2745,7 +2760,7 @@
         <v>28</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>27</v>
@@ -2756,31 +2771,31 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>27</v>
@@ -2791,31 +2806,31 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>27</v>
@@ -2826,22 +2841,22 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>28</v>
@@ -2861,31 +2876,31 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>27</v>
@@ -2896,31 +2911,31 @@
         <v>12</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>27</v>
@@ -2931,31 +2946,31 @@
         <v>12</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>27</v>
@@ -2966,22 +2981,22 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>28</v>
@@ -2990,7 +3005,7 @@
         <v>28</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>27</v>
@@ -3001,31 +3016,31 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>27</v>
@@ -3036,31 +3051,31 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>27</v>
@@ -3071,22 +3086,22 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>28</v>
@@ -3103,31 +3118,31 @@
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>27</v>
@@ -3138,31 +3153,31 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>27</v>
@@ -3173,22 +3188,22 @@
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>28</v>
@@ -3205,22 +3220,22 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>28</v>
@@ -3228,8 +3243,8 @@
       <c r="I56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>231</v>
+      <c r="J56" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>27</v>
@@ -3240,22 +3255,22 @@
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>28</v>
@@ -3263,8 +3278,8 @@
       <c r="I57" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>235</v>
+      <c r="J57" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>27</v>
@@ -3412,7 +3427,7 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3427,10 +3442,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3441,7 +3456,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3452,7 +3467,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3463,7 +3478,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3471,10 +3486,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3485,7 +3500,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3493,10 +3508,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3504,10 +3519,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,10 +3530,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,10 +3541,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,10 +3552,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,10 +3563,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3559,10 +3574,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3570,10 +3585,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,10 +3596,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,10 +3607,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,10 +3618,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,10 +3629,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,10 +3640,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,10 +3651,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,10 +3662,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,10 +3673,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,10 +3684,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,10 +3695,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,10 +3706,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,10 +3717,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,10 +3728,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,10 +3739,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,10 +3750,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,10 +3761,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,10 +3772,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,10 +3783,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,10 +3794,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,10 +3805,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,10 +3816,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,10 +3827,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,10 +3838,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,10 +3849,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,10 +3860,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,10 +3871,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,10 +3882,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,10 +3893,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,10 +3904,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,10 +3915,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,10 +3926,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,10 +3937,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,10 +3948,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,10 +3959,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,10 +3970,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,10 +3981,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,10 +3992,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,10 +4003,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,10 +4014,10 @@
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,10 +4025,10 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,10 +4036,10 @@
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,10 +4047,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,10 +4058,10 @@
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4082,7 +4097,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4090,7 +4105,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4106,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,12 +4137,12 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4148,8 +4163,8 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4164,10 +4179,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4178,7 +4193,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4189,7 +4204,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4200,7 +4215,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4208,10 +4223,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4222,7 +4237,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4230,10 +4245,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4241,10 +4256,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,10 +4267,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,10 +4278,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,10 +4289,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,10 +4300,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,10 +4311,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,10 +4322,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,10 +4333,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,10 +4344,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,10 +4355,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,10 +4366,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4362,10 +4377,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,10 +4388,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,10 +4399,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,10 +4410,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,10 +4421,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,10 +4432,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,10 +4443,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4439,10 +4454,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,10 +4465,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4461,10 +4476,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,10 +4487,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,10 +4498,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,10 +4509,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,10 +4520,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,10 +4531,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,10 +4542,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,10 +4553,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,10 +4564,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,10 +4575,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,10 +4586,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4582,10 +4597,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,10 +4608,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,10 +4619,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,10 +4630,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,10 +4641,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,10 +4652,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,10 +4663,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,10 +4674,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,10 +4685,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4681,10 +4696,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,10 +4707,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,10 +4718,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,10 +4729,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,10 +4740,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,10 +4751,10 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,43 +4762,43 @@
         <v>12</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,8 +4851,8 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4853,13 +4868,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4870,10 +4885,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4884,10 +4899,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4898,10 +4913,10 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4909,13 +4924,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4926,10 +4941,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4937,13 +4952,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4951,13 +4966,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,13 +4980,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,13 +4994,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,13 +5008,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,13 +5022,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,13 +5036,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,13 +5050,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,13 +5064,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,13 +5078,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,13 +5092,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,13 +5106,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,13 +5120,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5119,13 +5134,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,13 +5148,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,13 +5162,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,13 +5176,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,13 +5190,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,13 +5204,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,13 +5218,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,13 +5232,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,13 +5246,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,13 +5260,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,13 +5274,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,13 +5288,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5287,13 +5302,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,13 +5316,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,13 +5330,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,13 +5344,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,13 +5358,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,13 +5372,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,13 +5386,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,13 +5400,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,13 +5414,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,13 +5428,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,13 +5442,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,13 +5456,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,13 +5470,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,13 +5484,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,13 +5498,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,13 +5512,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,13 +5526,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,13 +5540,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,13 +5554,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,13 +5568,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,13 +5582,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,13 +5596,13 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,55 +5610,55 @@
         <v>12</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
